--- a/data/hotels_by_city/Houston/Houston_shard_114.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_114.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="274">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d674319-Reviews-Comfort_Suites-Houston_Texas.html</t>
   </si>
   <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Comfort-Suites-Houston-IAH-Airport-Beltway-8.h1768135.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,710 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r564202130-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>674319</t>
+  </si>
+  <si>
+    <t>564202130</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t>We would gladly stay here again someday.</t>
+  </si>
+  <si>
+    <t>We had a nice stay here visiting Houston for the 2018 Livestock Show and Rodeo.  The hotel's Manager, Ms. T, runs a tight ship with a kind heart - we really admired her hard work and professionalism.The beds here were extraordinarily comfy and the wifi internet speed was unusually fast (&gt;50Mbps the two nights I measured).  The carpet in our room appeared to be brand-new and the entire property seemed to be in quite good shape.We would gladly stay here again someday.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r561783730-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>561783730</t>
+  </si>
+  <si>
+    <t>02/20/2018</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The employees make this place like home. We stayed here due to missed flights both coming and going. The manager Tawana(check spelling) and also Mary were so helpful. Flight problems are so stressful they made it bearable. The rooms were very clean and roomy. Breakfast is provided, not a huge selection but what we would expect. They gave us a go bag as one of our flights was very early. Prompt pickup and drop off at the airport. The only downside was the broken hot tub. I am betting it has been out since the hurricane. </t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r557075046-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>557075046</t>
+  </si>
+  <si>
+    <t>01/29/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overnight layover </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was large and clean. The reception area was courteous and helpful.The breakfast was okay but they had run out of eggs half an hour after opening and said that they would not be getting more. The TV in the room was a little on the small side and I can’t speak to the picture quality as I didn’t turn it on. </t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r481814355-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>481814355</t>
+  </si>
+  <si>
+    <t>05/05/2017</t>
+  </si>
+  <si>
+    <t>Quite nice</t>
+  </si>
+  <si>
+    <t>Quite a nice hotel, room was good except for the broken wardrobe door and bathroom fan not working.  Plenty of choice at the buffet breakfast, however please note only limited cooked food is available but plenty of bagels, bread etc was avaialble.  Seemed really clean and tidy and reception staff were really helpful.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r467954775-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>467954775</t>
+  </si>
+  <si>
+    <t>03/16/2017</t>
+  </si>
+  <si>
+    <t>Attending a Conference!!!</t>
+  </si>
+  <si>
+    <t>I was impressed with this hotel and it's staff from beginning to end. The front desk clerk was very warm and friendly upon arrival. She was able to accommodate all of my requests. The room was very quiet and exactly as pictured. Breakfast was decent, not a lot of variety but you did have hot or cold options. Not a lot of places within walking distance to eat so you would need transportation to get around.  Fitness center is small but it served it's purpose, not a lot of air circulating in there. The pool and hot tub appeared to be nice, didn't get a chance to use it this time but I've already planned my return trip out there. So hopefully the second time around will be just as good or better than the first. Everyone I encounter there was friendly. Check in and out was a breeze. Would highly recommend!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I was impressed with this hotel and it's staff from beginning to end. The front desk clerk was very warm and friendly upon arrival. She was able to accommodate all of my requests. The room was very quiet and exactly as pictured. Breakfast was decent, not a lot of variety but you did have hot or cold options. Not a lot of places within walking distance to eat so you would need transportation to get around.  Fitness center is small but it served it's purpose, not a lot of air circulating in there. The pool and hot tub appeared to be nice, didn't get a chance to use it this time but I've already planned my return trip out there. So hopefully the second time around will be just as good or better than the first. Everyone I encounter there was friendly. Check in and out was a breeze. Would highly recommend!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r461113928-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>461113928</t>
+  </si>
+  <si>
+    <t>02/19/2017</t>
+  </si>
+  <si>
+    <t>Understaffed and poorly managed</t>
+  </si>
+  <si>
+    <t>United provided the room here due to a missed connection.  I called for the complimentary shuttle and was told it would pick me up in 10 minutes. Thirty minutes later it had not arrived so I called the hotel, there was no answer. Ten minutes later I called again, no one answered. Finally 50 minutes after my first phone call I spoke to a clerk who explained the shuttle driver had picked up guests for another hotel and was taking care of that. An hour after my 1st call I was picked up.  As we drove from the airport to hotel the driver answered her cell phone while driving. I asked her to get off the phone while driving. She scowled and offered no apology. The clerk at the front desk was very nice but clearly another clerk should have been working. When I got to my room the toilet handle fell off, the toilet kept running till I reattached the handle and figured out how to make it stop running. One of the in-room phones to call the front desk was not working, the other was missing a faceplate. The in-room clock was one hour off.  There is no local restaurant near the hotel.  The next morning I had a reservation for the 5:30AM shuttle but was rushed into the shuttle at 5:10 because another guest was in a hurry. The manager drove the shuttle and apologized for the...United provided the room here due to a missed connection.  I called for the complimentary shuttle and was told it would pick me up in 10 minutes. Thirty minutes later it had not arrived so I called the hotel, there was no answer. Ten minutes later I called again, no one answered. Finally 50 minutes after my first phone call I spoke to a clerk who explained the shuttle driver had picked up guests for another hotel and was taking care of that. An hour after my 1st call I was picked up.  As we drove from the airport to hotel the driver answered her cell phone while driving. I asked her to get off the phone while driving. She scowled and offered no apology. The clerk at the front desk was very nice but clearly another clerk should have been working. When I got to my room the toilet handle fell off, the toilet kept running till I reattached the handle and figured out how to make it stop running. One of the in-room phones to call the front desk was not working, the other was missing a faceplate. The in-room clock was one hour off.  There is no local restaurant near the hotel.  The next morning I had a reservation for the 5:30AM shuttle but was rushed into the shuttle at 5:10 because another guest was in a hurry. The manager drove the shuttle and apologized for the problems. He said things run differently at night. That is no excuse for allowing the unsafe practice of driving while on a cell phone. United paid for the room otherwise I would have demanded a full refund.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>United provided the room here due to a missed connection.  I called for the complimentary shuttle and was told it would pick me up in 10 minutes. Thirty minutes later it had not arrived so I called the hotel, there was no answer. Ten minutes later I called again, no one answered. Finally 50 minutes after my first phone call I spoke to a clerk who explained the shuttle driver had picked up guests for another hotel and was taking care of that. An hour after my 1st call I was picked up.  As we drove from the airport to hotel the driver answered her cell phone while driving. I asked her to get off the phone while driving. She scowled and offered no apology. The clerk at the front desk was very nice but clearly another clerk should have been working. When I got to my room the toilet handle fell off, the toilet kept running till I reattached the handle and figured out how to make it stop running. One of the in-room phones to call the front desk was not working, the other was missing a faceplate. The in-room clock was one hour off.  There is no local restaurant near the hotel.  The next morning I had a reservation for the 5:30AM shuttle but was rushed into the shuttle at 5:10 because another guest was in a hurry. The manager drove the shuttle and apologized for the...United provided the room here due to a missed connection.  I called for the complimentary shuttle and was told it would pick me up in 10 minutes. Thirty minutes later it had not arrived so I called the hotel, there was no answer. Ten minutes later I called again, no one answered. Finally 50 minutes after my first phone call I spoke to a clerk who explained the shuttle driver had picked up guests for another hotel and was taking care of that. An hour after my 1st call I was picked up.  As we drove from the airport to hotel the driver answered her cell phone while driving. I asked her to get off the phone while driving. She scowled and offered no apology. The clerk at the front desk was very nice but clearly another clerk should have been working. When I got to my room the toilet handle fell off, the toilet kept running till I reattached the handle and figured out how to make it stop running. One of the in-room phones to call the front desk was not working, the other was missing a faceplate. The in-room clock was one hour off.  There is no local restaurant near the hotel.  The next morning I had a reservation for the 5:30AM shuttle but was rushed into the shuttle at 5:10 because another guest was in a hurry. The manager drove the shuttle and apologized for the problems. He said things run differently at night. That is no excuse for allowing the unsafe practice of driving while on a cell phone. United paid for the room otherwise I would have demanded a full refund.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r374946711-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>374946711</t>
+  </si>
+  <si>
+    <t>05/20/2016</t>
+  </si>
+  <si>
+    <t>sorry cant recommend..</t>
+  </si>
+  <si>
+    <t>OK, normally when overnighting thru IAH, I stay at the Country Inns/Suites on JFK. Clean, quiet, with a good shuttle, walking distance to decent little saloon and restaurants.This time decided to take a chance on Hotwire and ended up here. Never again. First of all it is no longer connected with the Comfort chain..now called the Airport Suites.Secondly, when I arrived at IAH, and called to find out about the shuttle, I was told "take a cab, the shuttle is not available" At noon on a business day????? Finally they agreed to reimburse for a cab. The shuttle won't pick you up at the Shuttle gate, but rather is an unmarked private vehicle that will pick up at Passenger Pickup. I suspect they don't pay the Shuttle fee to IAH.....Secondly, the hotel is in the middle of nowhere. The only walkable place to eat is the Burger King down the road.....oh and the gas station.The breakfast room is "OK", but there are only 5or 6 tables in a pretty big space. It took me 3 tries over an hour, to finally be able to get a place to sit down to eat.The rooms are the standard, airport decor. In fairness, it was clean and well kept.But......just too much hassle all round.Stay at one of the places on JFK.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>OK, normally when overnighting thru IAH, I stay at the Country Inns/Suites on JFK. Clean, quiet, with a good shuttle, walking distance to decent little saloon and restaurants.This time decided to take a chance on Hotwire and ended up here. Never again. First of all it is no longer connected with the Comfort chain..now called the Airport Suites.Secondly, when I arrived at IAH, and called to find out about the shuttle, I was told "take a cab, the shuttle is not available" At noon on a business day????? Finally they agreed to reimburse for a cab. The shuttle won't pick you up at the Shuttle gate, but rather is an unmarked private vehicle that will pick up at Passenger Pickup. I suspect they don't pay the Shuttle fee to IAH.....Secondly, the hotel is in the middle of nowhere. The only walkable place to eat is the Burger King down the road.....oh and the gas station.The breakfast room is "OK", but there are only 5or 6 tables in a pretty big space. It took me 3 tries over an hour, to finally be able to get a place to sit down to eat.The rooms are the standard, airport decor. In fairness, it was clean and well kept.But......just too much hassle all round.Stay at one of the places on JFK.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r282335328-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>282335328</t>
+  </si>
+  <si>
+    <t>06/23/2015</t>
+  </si>
+  <si>
+    <t>Call your own cab!</t>
+  </si>
+  <si>
+    <t>First, the front desk guy couldn't even do the courtesy of taking his earbuds out of his ears when we went to the desk. We asked him to call a cab for us, big mistake. He called his buddy and we ended up with a cabbie with no meter. We asked for a quick stop to CVS before the airport and he charged us $50 for the ride! Never again will I get into a cab without a meter- what a rip off. I'm also spending the extra $ to be closer to the airport on our return layover.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r278174677-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>278174677</t>
+  </si>
+  <si>
+    <t>06/05/2015</t>
+  </si>
+  <si>
+    <t>Beware! They have been suspended from the franchise! Terrible Experience!</t>
+  </si>
+  <si>
+    <t>I booked this hotel for a quick one night stay while laying over in Houston. Let me start off by saying that I spend approximately 10-12 nights per month in hotels... This was by far the worst hotel experience that I have ever had. The whole reason that I booked this hotel was because it was the right price and it offered a complimentary airport shuttle service. You can imagine my frustration when my flight got in at 4:07PM on a Tuesday and I called to be picked up from the airport to be informed by a rude front desk member that the shuttle had stopped operating for the day at 4:00PM! I got stuck with a $25 cab ride. I took some time to gather my thoughts and collect information from numerous sources both online and from the hotel information booklet in my room that there were no "hours of operation" for the shuttle service clarified anywhere.
+I went downstairs and asked to speak to the manager. She didn't seem to care about my situation and informed me over and over that they were not affiliated with Choice hotels. She stated that information did not apply to her hotel. She disregarded all of the information from the various sources of evidence I gathered that did NOT show restricted shuttle operation hours. Even when I showed her the picture that I took of the information booklet in the room that...I booked this hotel for a quick one night stay while laying over in Houston. Let me start off by saying that I spend approximately 10-12 nights per month in hotels... This was by far the worst hotel experience that I have ever had. The whole reason that I booked this hotel was because it was the right price and it offered a complimentary airport shuttle service. You can imagine my frustration when my flight got in at 4:07PM on a Tuesday and I called to be picked up from the airport to be informed by a rude front desk member that the shuttle had stopped operating for the day at 4:00PM! I got stuck with a $25 cab ride. I took some time to gather my thoughts and collect information from numerous sources both online and from the hotel information booklet in my room that there were no "hours of operation" for the shuttle service clarified anywhere.I went downstairs and asked to speak to the manager. She didn't seem to care about my situation and informed me over and over that they were not affiliated with Choice hotels. She stated that information did not apply to her hotel. She disregarded all of the information from the various sources of evidence I gathered that did NOT show restricted shuttle operation hours. Even when I showed her the picture that I took of the information booklet in the room that said "Available Monday-Friday" she did not seem to care. I told her that if they operate 8AM-4PM then their booklets and information online needs to be updated to explicitly state "Monday-Friday 8AM-4PM". I realized that speaking with her was not going to get me anywhere. She refused to reimburse me for my cab expense. I am not quite sure how the other reviewer below me got lucky enough to be reimbursed... I went back upstairs to my room and called Choice hotels customer service line. The information that I learned from them was very interesting! This hotel had so many complaints and such a bad reputation that Choice hotels has actually suspended them from their franchise! This means that you won't be getting Choice hotel points at this location either! The Choice hotel customer service representative told me that they had been suspended relatively recently and that they had 30 days to remove all of their affiliations with Choice hotels.Later that night, I witnessed a front desk employee yelling and cussing out a customer and subsequently flipping them off. I was shocked! I have never witnessed such terrible customer service by so many employees in such a short amount of time. These employees do not care about their standard of service or their customers whatsoever. Do yourself a favor and stay somewhere else. With the extra money that I was forced to spend on a cab, I easily could've stayed at a slightly more expensive hotel that would have served me better.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I booked this hotel for a quick one night stay while laying over in Houston. Let me start off by saying that I spend approximately 10-12 nights per month in hotels... This was by far the worst hotel experience that I have ever had. The whole reason that I booked this hotel was because it was the right price and it offered a complimentary airport shuttle service. You can imagine my frustration when my flight got in at 4:07PM on a Tuesday and I called to be picked up from the airport to be informed by a rude front desk member that the shuttle had stopped operating for the day at 4:00PM! I got stuck with a $25 cab ride. I took some time to gather my thoughts and collect information from numerous sources both online and from the hotel information booklet in my room that there were no "hours of operation" for the shuttle service clarified anywhere.
+I went downstairs and asked to speak to the manager. She didn't seem to care about my situation and informed me over and over that they were not affiliated with Choice hotels. She stated that information did not apply to her hotel. She disregarded all of the information from the various sources of evidence I gathered that did NOT show restricted shuttle operation hours. Even when I showed her the picture that I took of the information booklet in the room that...I booked this hotel for a quick one night stay while laying over in Houston. Let me start off by saying that I spend approximately 10-12 nights per month in hotels... This was by far the worst hotel experience that I have ever had. The whole reason that I booked this hotel was because it was the right price and it offered a complimentary airport shuttle service. You can imagine my frustration when my flight got in at 4:07PM on a Tuesday and I called to be picked up from the airport to be informed by a rude front desk member that the shuttle had stopped operating for the day at 4:00PM! I got stuck with a $25 cab ride. I took some time to gather my thoughts and collect information from numerous sources both online and from the hotel information booklet in my room that there were no "hours of operation" for the shuttle service clarified anywhere.I went downstairs and asked to speak to the manager. She didn't seem to care about my situation and informed me over and over that they were not affiliated with Choice hotels. She stated that information did not apply to her hotel. She disregarded all of the information from the various sources of evidence I gathered that did NOT show restricted shuttle operation hours. Even when I showed her the picture that I took of the information booklet in the room that said "Available Monday-Friday" she did not seem to care. I told her that if they operate 8AM-4PM then their booklets and information online needs to be updated to explicitly state "Monday-Friday 8AM-4PM". I realized that speaking with her was not going to get me anywhere. She refused to reimburse me for my cab expense. I am not quite sure how the other reviewer below me got lucky enough to be reimbursed... I went back upstairs to my room and called Choice hotels customer service line. The information that I learned from them was very interesting! This hotel had so many complaints and such a bad reputation that Choice hotels has actually suspended them from their franchise! This means that you won't be getting Choice hotel points at this location either! The Choice hotel customer service representative told me that they had been suspended relatively recently and that they had 30 days to remove all of their affiliations with Choice hotels.Later that night, I witnessed a front desk employee yelling and cussing out a customer and subsequently flipping them off. I was shocked! I have never witnessed such terrible customer service by so many employees in such a short amount of time. These employees do not care about their standard of service or their customers whatsoever. Do yourself a favor and stay somewhere else. With the extra money that I was forced to spend on a cab, I easily could've stayed at a slightly more expensive hotel that would have served me better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r225790606-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>225790606</t>
+  </si>
+  <si>
+    <t>08/31/2014</t>
+  </si>
+  <si>
+    <t>Bad Customer Service</t>
+  </si>
+  <si>
+    <t>No shuttle service on the weekends. Front desk help very unhelpful and rude. Front desk help talks to guests about other guests in a derogatory manner. Quality Suites across the beltway is a much better hotel.  Please save yourself a headache and don't stay at the Comfort Suites 1350 N Sam Houston Pkwy East Houston Texas 77032.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r221120257-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>221120257</t>
+  </si>
+  <si>
+    <t>08/11/2014</t>
+  </si>
+  <si>
+    <t>Stayed here a couple of times..</t>
+  </si>
+  <si>
+    <t>I've stayed here a few times, mainly due to it's great location close to the airport, but i've always had a good experience.   The rooms always are clean and i've never had any significant issues with any of the staff, from rudeness or incompetence.   They have a nice little 'market' in the lobby open 24/7 and the prices are surprisingly reasonable.   I find this location very easy to get access to just about any part of the city to, as it's connected to the main highway veins of the city, however, if you have to do a lot of business on the south or west side of town, this would not be a good location as you would have to battle traffic all the time.  At any rate, it's a great spot, I recommend it, and as I said, i've stayed here a few times before and no doubt, i'll stay here a few times more in the future!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>I've stayed here a few times, mainly due to it's great location close to the airport, but i've always had a good experience.   The rooms always are clean and i've never had any significant issues with any of the staff, from rudeness or incompetence.   They have a nice little 'market' in the lobby open 24/7 and the prices are surprisingly reasonable.   I find this location very easy to get access to just about any part of the city to, as it's connected to the main highway veins of the city, however, if you have to do a lot of business on the south or west side of town, this would not be a good location as you would have to battle traffic all the time.  At any rate, it's a great spot, I recommend it, and as I said, i've stayed here a few times before and no doubt, i'll stay here a few times more in the future!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r209713410-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>209713410</t>
+  </si>
+  <si>
+    <t>06/10/2014</t>
+  </si>
+  <si>
+    <t>Excellent Value.</t>
+  </si>
+  <si>
+    <t>We booked this hotel because of the good reviews on Tripadvisor. We were not disappointed, on check in the staff were very pleasant and gave us a free upgrade. The room was on the 3rd floor and was very spacious and comfortable, we had the biggest bed we have ever seen and found it comfortable, we also had a fridge, microwave and coffee maker in the room as well as a table and sofa and chairs. We had the complimentry breakfast every morning and found the food available to be of a high standard and there was everything there that we needed. Would I stay here again, yes, would I recommend it, yes.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We booked this hotel because of the good reviews on Tripadvisor. We were not disappointed, on check in the staff were very pleasant and gave us a free upgrade. The room was on the 3rd floor and was very spacious and comfortable, we had the biggest bed we have ever seen and found it comfortable, we also had a fridge, microwave and coffee maker in the room as well as a table and sofa and chairs. We had the complimentry breakfast every morning and found the food available to be of a high standard and there was everything there that we needed. Would I stay here again, yes, would I recommend it, yes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r205852465-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>205852465</t>
+  </si>
+  <si>
+    <t>05/16/2014</t>
+  </si>
+  <si>
+    <t>Traveling cheap for business</t>
+  </si>
+  <si>
+    <t>Budget cuts have forced our business excursions to cut expenditures, which is not really a bad thing.  Stayed at Comfort Suites with large group.  Room was very comfortable and large.  I felt very spoiled with all that space to myself.  Complimentary breakfast wasn't too bad - usual fare.  The only problem was the check-in and -out.  We had a large group and tried to work with them ahead of time to have paperwork ready for both times.  They seemed to not be able to wrap their heads around this concept.  They almost seemed annoyed that there were so many of us at once.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ree A, General Manager at Comfort Suites, responded to this reviewResponded May 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2014</t>
+  </si>
+  <si>
+    <t>Budget cuts have forced our business excursions to cut expenditures, which is not really a bad thing.  Stayed at Comfort Suites with large group.  Room was very comfortable and large.  I felt very spoiled with all that space to myself.  Complimentary breakfast wasn't too bad - usual fare.  The only problem was the check-in and -out.  We had a large group and tried to work with them ahead of time to have paperwork ready for both times.  They seemed to not be able to wrap their heads around this concept.  They almost seemed annoyed that there were so many of us at once.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r203467719-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>203467719</t>
+  </si>
+  <si>
+    <t>04/30/2014</t>
+  </si>
+  <si>
+    <t>Incompetent Gerneral Manager... who is never on property!</t>
+  </si>
+  <si>
+    <t>Have stayed at this particular Comfort Suites many times over the last year as the energy company I work for is headquartered in Houston. Girl by the name of Lucy "runs" the place and she's all talk and NO action.With each stay there is more and more items in the rooms that require attention or things that need to be cleaned. Dirty bathrooms, broken fixtures, and lumpy mattresses. You'll report an circumstance that needs repair and even mention it to Lucy... and 3 weeks later when you return... it still will not be fixed. That is if you can ever find Lucy. Front desk always that she is out "running errands". Unreal. At this point this hotel is all about soaking guests for every last penny. Very sad to see such a decline in such a short time and extremely difficult to see such an inept GM such as Lucy attempting to keep this thing afloat.My firm has pulled the plug with this this hotel and capped off any further business.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Have stayed at this particular Comfort Suites many times over the last year as the energy company I work for is headquartered in Houston. Girl by the name of Lucy "runs" the place and she's all talk and NO action.With each stay there is more and more items in the rooms that require attention or things that need to be cleaned. Dirty bathrooms, broken fixtures, and lumpy mattresses. You'll report an circumstance that needs repair and even mention it to Lucy... and 3 weeks later when you return... it still will not be fixed. That is if you can ever find Lucy. Front desk always that she is out "running errands". Unreal. At this point this hotel is all about soaking guests for every last penny. Very sad to see such a decline in such a short time and extremely difficult to see such an inept GM such as Lucy attempting to keep this thing afloat.My firm has pulled the plug with this this hotel and capped off any further business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r200694371-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>200694371</t>
+  </si>
+  <si>
+    <t>04/11/2014</t>
+  </si>
+  <si>
+    <t>Never Again</t>
+  </si>
+  <si>
+    <t>I stayed at this property a few months ago. The Heating did not work in several rooms but the staff refused to acknowledge that the Heating did not work. Temperature inside the room dropped below 50 F. To top it off Choice Hotels has refused to acknowledge the problem and refused to acknowledge my stay there. I still have my reservation confirmation electronic bill and the paper receipt but they refuse to acknowledge the stay on my Choice Privileges account. Since that stay I've stayed over 90 nights in different hotels (I've traveled every week but one this year) and have decided that the Choice Hotel system in general is simply a poor overall value with service that fails to match that of ANY of the other Hotel groups.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>I stayed at this property a few months ago. The Heating did not work in several rooms but the staff refused to acknowledge that the Heating did not work. Temperature inside the room dropped below 50 F. To top it off Choice Hotels has refused to acknowledge the problem and refused to acknowledge my stay there. I still have my reservation confirmation electronic bill and the paper receipt but they refuse to acknowledge the stay on my Choice Privileges account. Since that stay I've stayed over 90 nights in different hotels (I've traveled every week but one this year) and have decided that the Choice Hotel system in general is simply a poor overall value with service that fails to match that of ANY of the other Hotel groups.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r186948651-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>186948651</t>
+  </si>
+  <si>
+    <t>12/06/2013</t>
+  </si>
+  <si>
+    <t>No Heat, No Help</t>
+  </si>
+  <si>
+    <t>The hotel is reasonably clean and neat. But, the heating system does not work. The room is already down to 63 degrees F at 7:00 PM and the temperature is still dropping. The front desk says they can't do anything about it and pretends that it's a big surprise to them. But, other reviews mention they same problem. And, the WiFi access codes they provide don't work.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r185312782-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>185312782</t>
+  </si>
+  <si>
+    <t>11/20/2013</t>
+  </si>
+  <si>
+    <t>Outstanding Customer Service</t>
+  </si>
+  <si>
+    <t>We have stayed a week at this hotel, my boyfriend was taking a class in one of the meeting rooms. the property is very well maintained, rooms very nice and comfortable. i had a problem with the heater in my room so i went to the front desk and the Sweet and professional desk clerk Mimi, immediately said lets go see if there is anything we can do. She checked everything she could and was unable to fix it but brought me extra blankets to keep me comfortable, ive worked in the hotel business for many years and to find staff this considerate is a VALUE for any property. Maintenance arrived first thing the next morning just like she promised. Thank you Mimi for making my stay so nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>We have stayed a week at this hotel, my boyfriend was taking a class in one of the meeting rooms. the property is very well maintained, rooms very nice and comfortable. i had a problem with the heater in my room so i went to the front desk and the Sweet and professional desk clerk Mimi, immediately said lets go see if there is anything we can do. She checked everything she could and was unable to fix it but brought me extra blankets to keep me comfortable, ive worked in the hotel business for many years and to find staff this considerate is a VALUE for any property. Maintenance arrived first thing the next morning just like she promised. Thank you Mimi for making my stay so nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r183437141-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>183437141</t>
+  </si>
+  <si>
+    <t>11/03/2013</t>
+  </si>
+  <si>
+    <t>Great experience</t>
+  </si>
+  <si>
+    <t>We arrived at IAH airport, and called for the shuttle. It arrived in a few minutes. The shuttle looked brand new (white mini-van). I asked the driver to stop by Alwadi Mediterranean sandwiches, and he said no problem. I got the order to go, and we went to the hotel. Check-in was no problem. Our room was clean, everything in order. My room was facing the road, but I had brought a small fan, and I didn't hear any road noise. Breakfast was the standard Comfort Suites breakfast (scrambled eggs, meat, make your own waffles, etc). Later that evening, I called the front desk, and asked if the shuttle would take us to Wal-Mart. They said no problem, and they drove us to a Wal-Mart, and me and my wife walked across the street and went to Whataburger for supper. We called from Whataburger, and they came to pick us up. This is a great service they provide. (free transportation within 5 miles) The next morning, they took us to the airport, to pick up my transportation to the cruise terminal in Galveston. Excellent experience, would highly recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ree A, General Manager at Comfort Suites, responded to this reviewResponded November 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2013</t>
+  </si>
+  <si>
+    <t>We arrived at IAH airport, and called for the shuttle. It arrived in a few minutes. The shuttle looked brand new (white mini-van). I asked the driver to stop by Alwadi Mediterranean sandwiches, and he said no problem. I got the order to go, and we went to the hotel. Check-in was no problem. Our room was clean, everything in order. My room was facing the road, but I had brought a small fan, and I didn't hear any road noise. Breakfast was the standard Comfort Suites breakfast (scrambled eggs, meat, make your own waffles, etc). Later that evening, I called the front desk, and asked if the shuttle would take us to Wal-Mart. They said no problem, and they drove us to a Wal-Mart, and me and my wife walked across the street and went to Whataburger for supper. We called from Whataburger, and they came to pick us up. This is a great service they provide. (free transportation within 5 miles) The next morning, they took us to the airport, to pick up my transportation to the cruise terminal in Galveston. Excellent experience, would highly recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r162527571-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>162527571</t>
+  </si>
+  <si>
+    <t>05/31/2013</t>
+  </si>
+  <si>
+    <t>Decent property</t>
+  </si>
+  <si>
+    <t>This is a decent property near George Bush Intercontinental Airport. The hotel is clean and staff was nice. The hotel is off the highway but set back a bit by the service road and another business road. The distance is about 3 miles from the airport, but quick and easy.No frills, just decent clean stay.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r161994490-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>161994490</t>
+  </si>
+  <si>
+    <t>05/27/2013</t>
+  </si>
+  <si>
+    <t>love this comfortsuites</t>
+  </si>
+  <si>
+    <t>the front desk was very nice and polite. They were helpful in finding places we were looking for. the room was very spacious. the breakfast was hot and plentiful, better than what we have had at other locations. the only complaint we had was that the pool was not open because the door was jammed it was memorial day weekend sothat was a bummer. but wewill definitely stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r161101663-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>161101663</t>
+  </si>
+  <si>
+    <t>05/18/2013</t>
+  </si>
+  <si>
+    <t>all in all, it is not like a hampton inn</t>
+  </si>
+  <si>
+    <t>the basic services are just the ones offered by the hampton inns (free wifi, free breakfast, free parking, etc..) and the price is attractive but I must say they are not in the same league of the Hamptonsfrom the outside looks good and the lobby is good too but it has squeaky floors, old carpets, yellow bed sheetshowever, for breakfast .... comfort suites 1 - hampton inn 0 and it has an outdoor pool staff sounded like they HAD to stay there but would have loved being somewhere else</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r155062402-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155062402</t>
+  </si>
+  <si>
+    <t>03/19/2013</t>
+  </si>
+  <si>
+    <t>New, Clean, inexpensive, good amenities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We had an extended layover and needed an inexpensive place to stay. The staff was friendly, everything was like new. AC in the room, free wi-fi and cable, free breakfast (it was ok), free shuttle. $89 with AAA discount! Can't beat it. They had rented a van because the shuttle had broken down. It was very nice. We were very pleased with our stay. Not a 5 star hotel! But not out of the budget too. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r154848854-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154848854</t>
+  </si>
+  <si>
+    <t>03/17/2013</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE</t>
+  </si>
+  <si>
+    <t>Where to begin!  The hotel offers a free shuttle service.  I called from the airport at 11:00 pm on a Saturday night.  I was told the shuttle was broken down  and that  would we would have to take a taxi to the hotel.  $20 later plus tip we were at the hotel.  We checked in and were given key cards to our room- the first and second set of two cards did not work. I went back down to the desk for the third time and the fifth card failed to work as well.  The front desk clerk then remembered that the previous guest had jammed their key in the lock and she guessed it didn't get fixed.  They finally gave  us another room. I asked if the shuttle was going to be fixed soon and they said it was fixed now, it just had a dead battery.  I said  great I just paid $25 ( fare + tip) for a taxi.  They asked if I had a receipt--if so they would reimburse me.  Of course I didn't, it would have been nice if the desk clerk had told me that I would be reimbursed for the taxi when I called about the shuttle.  The room was ok but had a weird smell.  The smoke detector was missing from the ceiling.  
+Breakfast- ok but not as much variety as other comfort suites.  It is the little things -the waffle batter...Where to begin!  The hotel offers a free shuttle service.  I called from the airport at 11:00 pm on a Saturday night.  I was told the shuttle was broken down  and that  would we would have to take a taxi to the hotel.  $20 later plus tip we were at the hotel.  We checked in and were given key cards to our room- the first and second set of two cards did not work. I went back down to the desk for the third time and the fifth card failed to work as well.  The front desk clerk then remembered that the previous guest had jammed their key in the lock and she guessed it didn't get fixed.  They finally gave  us another room. I asked if the shuttle was going to be fixed soon and they said it was fixed now, it just had a dead battery.  I said  great I just paid $25 ( fare + tip) for a taxi.  They asked if I had a receipt--if so they would reimburse me.  Of course I didn't, it would have been nice if the desk clerk had told me that I would be reimbursed for the taxi when I called about the shuttle.  The room was ok but had a weird smell.  The smoke detector was missing from the ceiling.   Breakfast- ok but not as much variety as other comfort suites.  It is the little things -the waffle batter said regular and cinnamon - I made cinnamon-which was really strawberry.  I asked the food service worker if the waffle mix was strawberry instead of cinnamon  she said yes but didn't bother to change the sign.We were going to stay here next week when we get back from our cruise but I have cancelled and made a reservation somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Where to begin!  The hotel offers a free shuttle service.  I called from the airport at 11:00 pm on a Saturday night.  I was told the shuttle was broken down  and that  would we would have to take a taxi to the hotel.  $20 later plus tip we were at the hotel.  We checked in and were given key cards to our room- the first and second set of two cards did not work. I went back down to the desk for the third time and the fifth card failed to work as well.  The front desk clerk then remembered that the previous guest had jammed their key in the lock and she guessed it didn't get fixed.  They finally gave  us another room. I asked if the shuttle was going to be fixed soon and they said it was fixed now, it just had a dead battery.  I said  great I just paid $25 ( fare + tip) for a taxi.  They asked if I had a receipt--if so they would reimburse me.  Of course I didn't, it would have been nice if the desk clerk had told me that I would be reimbursed for the taxi when I called about the shuttle.  The room was ok but had a weird smell.  The smoke detector was missing from the ceiling.  
+Breakfast- ok but not as much variety as other comfort suites.  It is the little things -the waffle batter...Where to begin!  The hotel offers a free shuttle service.  I called from the airport at 11:00 pm on a Saturday night.  I was told the shuttle was broken down  and that  would we would have to take a taxi to the hotel.  $20 later plus tip we were at the hotel.  We checked in and were given key cards to our room- the first and second set of two cards did not work. I went back down to the desk for the third time and the fifth card failed to work as well.  The front desk clerk then remembered that the previous guest had jammed their key in the lock and she guessed it didn't get fixed.  They finally gave  us another room. I asked if the shuttle was going to be fixed soon and they said it was fixed now, it just had a dead battery.  I said  great I just paid $25 ( fare + tip) for a taxi.  They asked if I had a receipt--if so they would reimburse me.  Of course I didn't, it would have been nice if the desk clerk had told me that I would be reimbursed for the taxi when I called about the shuttle.  The room was ok but had a weird smell.  The smoke detector was missing from the ceiling.   Breakfast- ok but not as much variety as other comfort suites.  It is the little things -the waffle batter said regular and cinnamon - I made cinnamon-which was really strawberry.  I asked the food service worker if the waffle mix was strawberry instead of cinnamon  she said yes but didn't bother to change the sign.We were going to stay here next week when we get back from our cruise but I have cancelled and made a reservation somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r153152602-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153152602</t>
+  </si>
+  <si>
+    <t>02/25/2013</t>
+  </si>
+  <si>
+    <t>Clean, nice hotel; Customer service stinks</t>
+  </si>
+  <si>
+    <t>We booked this hotel for one night between arriving at IAH and leaving on our cruise out of Galveston.  In advance, I contacted the hotel to ensure we'd have a shuttle to the hotel for our 10pm flight arrival time.  I was assured it would not be a problem, simply call when we landed.  So, I called when we landed and was told to find out which terminal we were in and to call back.  Making our way to baggage claim, I found out the terminal and called back.  I was rudely told that another party called prior to my second call and that the shuttle was picking the other party up and it would be about a 45 minute wait for us.  Really??  I had just called 10 minutes prior and she knew I would be calling back, yet she gave the shuttle to another party.  Her attitude was terrible.  No apologies or anything.  Just a "too bad" attitude.  When we arrived at the lobby, she had a little smirk on her face and was exchanging glances with another employee.  Totally unprofessional.  The room was clean, modern, and fairly new, so that was the only plus in my overall experience.
+I do not recommend this hotel for the lack of customer service.  Unfortunately for Comfort Suites, my sister is a travel agent and based on my experience, she will be booking her cruise clients in a different hotel from...We booked this hotel for one night between arriving at IAH and leaving on our cruise out of Galveston.  In advance, I contacted the hotel to ensure we'd have a shuttle to the hotel for our 10pm flight arrival time.  I was assured it would not be a problem, simply call when we landed.  So, I called when we landed and was told to find out which terminal we were in and to call back.  Making our way to baggage claim, I found out the terminal and called back.  I was rudely told that another party called prior to my second call and that the shuttle was picking the other party up and it would be about a 45 minute wait for us.  Really??  I had just called 10 minutes prior and she knew I would be calling back, yet she gave the shuttle to another party.  Her attitude was terrible.  No apologies or anything.  Just a "too bad" attitude.  When we arrived at the lobby, she had a little smirk on her face and was exchanging glances with another employee.  Totally unprofessional.  The room was clean, modern, and fairly new, so that was the only plus in my overall experience.I do not recommend this hotel for the lack of customer service.  Unfortunately for Comfort Suites, my sister is a travel agent and based on my experience, she will be booking her cruise clients in a different hotel from now on.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Ree A, General Manager at Comfort Suites, responded to this reviewResponded March 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 1, 2013</t>
+  </si>
+  <si>
+    <t>We booked this hotel for one night between arriving at IAH and leaving on our cruise out of Galveston.  In advance, I contacted the hotel to ensure we'd have a shuttle to the hotel for our 10pm flight arrival time.  I was assured it would not be a problem, simply call when we landed.  So, I called when we landed and was told to find out which terminal we were in and to call back.  Making our way to baggage claim, I found out the terminal and called back.  I was rudely told that another party called prior to my second call and that the shuttle was picking the other party up and it would be about a 45 minute wait for us.  Really??  I had just called 10 minutes prior and she knew I would be calling back, yet she gave the shuttle to another party.  Her attitude was terrible.  No apologies or anything.  Just a "too bad" attitude.  When we arrived at the lobby, she had a little smirk on her face and was exchanging glances with another employee.  Totally unprofessional.  The room was clean, modern, and fairly new, so that was the only plus in my overall experience.
+I do not recommend this hotel for the lack of customer service.  Unfortunately for Comfort Suites, my sister is a travel agent and based on my experience, she will be booking her cruise clients in a different hotel from...We booked this hotel for one night between arriving at IAH and leaving on our cruise out of Galveston.  In advance, I contacted the hotel to ensure we'd have a shuttle to the hotel for our 10pm flight arrival time.  I was assured it would not be a problem, simply call when we landed.  So, I called when we landed and was told to find out which terminal we were in and to call back.  Making our way to baggage claim, I found out the terminal and called back.  I was rudely told that another party called prior to my second call and that the shuttle was picking the other party up and it would be about a 45 minute wait for us.  Really??  I had just called 10 minutes prior and she knew I would be calling back, yet she gave the shuttle to another party.  Her attitude was terrible.  No apologies or anything.  Just a "too bad" attitude.  When we arrived at the lobby, she had a little smirk on her face and was exchanging glances with another employee.  Totally unprofessional.  The room was clean, modern, and fairly new, so that was the only plus in my overall experience.I do not recommend this hotel for the lack of customer service.  Unfortunately for Comfort Suites, my sister is a travel agent and based on my experience, she will be booking her cruise clients in a different hotel from now on.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r150603784-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150603784</t>
+  </si>
+  <si>
+    <t>01/25/2013</t>
+  </si>
+  <si>
+    <t>Perfectly servicable if you need a place near the airport and nothing else.</t>
+  </si>
+  <si>
+    <t>Stayed here one night as it was only a few miles from the airport. Driving up there was a number of RVs in the parking lot which gave me a little concern, however this seemed to be no issue. Some seem to have been there a while and occupied. Initially I could not get the aircon to work, maintenance come up and seemed to fix it after tapping on it for a while. The rooms are acceptably clean. Bed was ok, pillows could have been more comfortable as I had trouble sleeping. I think it was the pillows that were lumpy, causing enough discomfort to keep me waking up and repositioning them. Not much nearby, a Shell station about ¼ mile away, that’s about it. Fitness center has the minimum equipment but it was of good quality. There is a pool and hot tub outside but they lost the afternoon sun early. Breakfast was just ok, eggs bacon (something like bacon that they use anyway), etc.  Overall I might stay again. I would not avoid using this hotel again. When I booked I was in a bind as all other hotels had sold out in the area. Overall nothing really negative at all, kind of unmemorable.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Stayed here one night as it was only a few miles from the airport. Driving up there was a number of RVs in the parking lot which gave me a little concern, however this seemed to be no issue. Some seem to have been there a while and occupied. Initially I could not get the aircon to work, maintenance come up and seemed to fix it after tapping on it for a while. The rooms are acceptably clean. Bed was ok, pillows could have been more comfortable as I had trouble sleeping. I think it was the pillows that were lumpy, causing enough discomfort to keep me waking up and repositioning them. Not much nearby, a Shell station about ¼ mile away, that’s about it. Fitness center has the minimum equipment but it was of good quality. There is a pool and hot tub outside but they lost the afternoon sun early. Breakfast was just ok, eggs bacon (something like bacon that they use anyway), etc.  Overall I might stay again. I would not avoid using this hotel again. When I booked I was in a bind as all other hotels had sold out in the area. Overall nothing really negative at all, kind of unmemorable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r149857532-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>149857532</t>
+  </si>
+  <si>
+    <t>01/17/2013</t>
+  </si>
+  <si>
+    <t>Very nice and clean</t>
+  </si>
+  <si>
+    <t>I stayed one night. Had to be near the airport This was one of the cheapest deals I found and I found it to be one of the best Comfort Suites hotel I stayed in. It is relatively new (or recently renovated). Large rooms (Texas size...) very clean</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r137648665-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>137648665</t>
+  </si>
+  <si>
+    <t>08/19/2012</t>
+  </si>
+  <si>
+    <t>Nice Stay Close to KIAH</t>
+  </si>
+  <si>
+    <t>Comfort Suites is a great place to stay close to Houston Intercontinental Airport.  Prompt van service from airport to hotel.  Clean spacious rooms with whisper quite air conditioners,  very friendly professional staff, nice complimentary morning breakfast. Very good Middle Eastern and Chinese food close to hotel.  A good value close to the airport!</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r128443398-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>128443398</t>
+  </si>
+  <si>
+    <t>04/23/2012</t>
+  </si>
+  <si>
+    <t>Great and quiet stay. Easy access</t>
+  </si>
+  <si>
+    <t>I stayed here for a week while attending a course a few minutes west on the tollway. The staff was accommodating in how I paid (using traveller's cheques!). The price was very affordable for a suite and I had a room on the ground floor (quick access in and out). The en-suite microwave and fridge worked out great - as I had to study for exams on the course, so I was mostly grounded after class each day. This allowed me to get some microwave dishes and keep in the fridge to heat up for dinner. The place was modern (seems recently built). It was very quiet - conducive for studying. It's pretty close to the airport, so driving there was a breeze. Complimentary internet and wifi was a great plus for me to keep up with work emails, etc. I would likely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>I stayed here for a week while attending a course a few minutes west on the tollway. The staff was accommodating in how I paid (using traveller's cheques!). The price was very affordable for a suite and I had a room on the ground floor (quick access in and out). The en-suite microwave and fridge worked out great - as I had to study for exams on the course, so I was mostly grounded after class each day. This allowed me to get some microwave dishes and keep in the fridge to heat up for dinner. The place was modern (seems recently built). It was very quiet - conducive for studying. It's pretty close to the airport, so driving there was a breeze. Complimentary internet and wifi was a great plus for me to keep up with work emails, etc. I would likely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r128022320-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>128022320</t>
+  </si>
+  <si>
+    <t>04/16/2012</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>We have no complaints about this hotel.  The room was perfect, the staff was very friendly, and the breakfast was great too.  I still can't believe how cheap this hotel is.  It's by far the best Comfort Suites we've stayed at and it's also the cheapest.  You can't go wrong with this place.  I did overhear a woman complaining that the airport shuttle didn't start running until 6:00 AM.  Apparently their website says that it runs 24/7.  I don't know that for sure though.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r127129998-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>127129998</t>
+  </si>
+  <si>
+    <t>04/02/2012</t>
+  </si>
+  <si>
+    <t>Perfect!!!</t>
+  </si>
+  <si>
+    <t>From beginning to end our stay was awesome!  The front desk staff was always helpful and pleasant and the rooms were way better than I expected for the price.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r125748115-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>125748115</t>
+  </si>
+  <si>
+    <t>03/07/2012</t>
+  </si>
+  <si>
+    <t>I loved it</t>
+  </si>
+  <si>
+    <t>I stayed here while visiting family and I loved it ...the staff was  nice, the people were nice. I think Texans are nice...I think this will be my hotel for all my houston stays. Not sure what all these other people have to say but it was a great stay.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r125522461-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>125522461</t>
+  </si>
+  <si>
+    <t>03/02/2012</t>
+  </si>
+  <si>
+    <t>Great Hospitality</t>
+  </si>
+  <si>
+    <t>I travel quite a bit and am a frequent user of this chain of hotels.  I must say that the service at this location totally outdid some of the other locations.  The staff were so hospitable and seemed to cater to me...I like staying at hotels where you can tell the employees like their jobs!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r125481950-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>125481950</t>
+  </si>
+  <si>
+    <t>03/01/2012</t>
+  </si>
+  <si>
+    <t>Wonderfully surprised</t>
+  </si>
+  <si>
+    <t>I ended up going to this location by chance. It was a long meeting day and I did not want to drive all the way back home so I decided to stay closer to the airport. I remember a co-worker of mine mention that the employees at this particular Comfort Suites were very helpful and friendly. 
+I've personally never stayed at a Comfort Suite but I gave it a try. Surprisingly my co-worker was right. Right when I walked I was greeted with a smile and asked how they may assist me. I didn't have a reservation but the front desk clerk told me it wasn't a problem and even asked me if I had AAA, which I do, and was offered a lower rate on the spot. 
+It was a cute little hotel and the pool area was relaxing to lounge at after a long work day. My room was cozy and nicely kept. I even enjoyed a mini workout in the fitness room.
+The one thing I was happy to use was the balcony computer center they offered it wasn't big but perfect for checking some work emails. Which was great because my laptop was at the office. 
+I can honestly say I enjoyed my stay at this petite hotel. It was a nice change from staying at a larger hotel where everyone most of the time is on robot mode. Here I could really tell the management...I ended up going to this location by chance. It was a long meeting day and I did not want to drive all the way back home so I decided to stay closer to the airport. I remember a co-worker of mine mention that the employees at this particular Comfort Suites were very helpful and friendly. I've personally never stayed at a Comfort Suite but I gave it a try. Surprisingly my co-worker was right. Right when I walked I was greeted with a smile and asked how they may assist me. I didn't have a reservation but the front desk clerk told me it wasn't a problem and even asked me if I had AAA, which I do, and was offered a lower rate on the spot. It was a cute little hotel and the pool area was relaxing to lounge at after a long work day. My room was cozy and nicely kept. I even enjoyed a mini workout in the fitness room.The one thing I was happy to use was the balcony computer center they offered it wasn't big but perfect for checking some work emails. Which was great because my laptop was at the office. I can honestly say I enjoyed my stay at this petite hotel. It was a nice change from staying at a larger hotel where everyone most of the time is on robot mode. Here I could really tell the management staff and employees were more like family &amp; friends because the friendly service and help showed.   If I ever need to stay while near Continental Airport I hopefully will be staying here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>I ended up going to this location by chance. It was a long meeting day and I did not want to drive all the way back home so I decided to stay closer to the airport. I remember a co-worker of mine mention that the employees at this particular Comfort Suites were very helpful and friendly. 
+I've personally never stayed at a Comfort Suite but I gave it a try. Surprisingly my co-worker was right. Right when I walked I was greeted with a smile and asked how they may assist me. I didn't have a reservation but the front desk clerk told me it wasn't a problem and even asked me if I had AAA, which I do, and was offered a lower rate on the spot. 
+It was a cute little hotel and the pool area was relaxing to lounge at after a long work day. My room was cozy and nicely kept. I even enjoyed a mini workout in the fitness room.
+The one thing I was happy to use was the balcony computer center they offered it wasn't big but perfect for checking some work emails. Which was great because my laptop was at the office. 
+I can honestly say I enjoyed my stay at this petite hotel. It was a nice change from staying at a larger hotel where everyone most of the time is on robot mode. Here I could really tell the management...I ended up going to this location by chance. It was a long meeting day and I did not want to drive all the way back home so I decided to stay closer to the airport. I remember a co-worker of mine mention that the employees at this particular Comfort Suites were very helpful and friendly. I've personally never stayed at a Comfort Suite but I gave it a try. Surprisingly my co-worker was right. Right when I walked I was greeted with a smile and asked how they may assist me. I didn't have a reservation but the front desk clerk told me it wasn't a problem and even asked me if I had AAA, which I do, and was offered a lower rate on the spot. It was a cute little hotel and the pool area was relaxing to lounge at after a long work day. My room was cozy and nicely kept. I even enjoyed a mini workout in the fitness room.The one thing I was happy to use was the balcony computer center they offered it wasn't big but perfect for checking some work emails. Which was great because my laptop was at the office. I can honestly say I enjoyed my stay at this petite hotel. It was a nice change from staying at a larger hotel where everyone most of the time is on robot mode. Here I could really tell the management staff and employees were more like family &amp; friends because the friendly service and help showed.   If I ever need to stay while near Continental Airport I hopefully will be staying here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r124393538-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>124393538</t>
+  </si>
+  <si>
+    <t>02/10/2012</t>
+  </si>
+  <si>
+    <t>Wonderfull welcome</t>
+  </si>
+  <si>
+    <t>I stayed at this location while going to a class for my work. I was greeted by the  courtious staff and made to feel welcome. The rooms were clean and had been recently updated. I got there late and left early but it was a restfull stay. Except for the time I spent studying.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r123626176-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>123626176</t>
+  </si>
+  <si>
+    <t>01/25/2012</t>
+  </si>
+  <si>
+    <t>Great staff</t>
+  </si>
+  <si>
+    <t>Stayed here for the night before and after our vacation.  We were able to leave our car taking a cab in the morning and shuttle pick up on our return.  Shuttle available from 0600-midnight and will take you anywhere in 5 mile radius.  Staff were very helpful.  Rooms were quiet and very comfortable.  We will definitely return if we ever fly out of IAH again.  Only draw back, limited nearby restaurants.Great price by pre pay through Choice Hotels.com</t>
+  </si>
+  <si>
+    <t>January 2012</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1245,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1277,2322 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>92</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" t="s">
+        <v>106</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s">
+        <v>106</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>119</v>
+      </c>
+      <c r="O12" t="s">
+        <v>106</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>126</v>
+      </c>
+      <c r="O13" t="s">
+        <v>127</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" t="s">
+        <v>133</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>126</v>
+      </c>
+      <c r="O14" t="s">
+        <v>106</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>134</v>
+      </c>
+      <c r="X14" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K15" t="s">
+        <v>140</v>
+      </c>
+      <c r="L15" t="s">
+        <v>141</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>142</v>
+      </c>
+      <c r="O15" t="s">
+        <v>106</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>134</v>
+      </c>
+      <c r="X15" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" t="s">
+        <v>146</v>
+      </c>
+      <c r="K16" t="s">
+        <v>147</v>
+      </c>
+      <c r="L16" t="s">
+        <v>148</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>149</v>
+      </c>
+      <c r="O16" t="s">
+        <v>106</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>152</v>
+      </c>
+      <c r="J17" t="s">
+        <v>153</v>
+      </c>
+      <c r="K17" t="s">
+        <v>154</v>
+      </c>
+      <c r="L17" t="s">
+        <v>155</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>149</v>
+      </c>
+      <c r="O17" t="s">
+        <v>106</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" t="s">
+        <v>159</v>
+      </c>
+      <c r="L18" t="s">
+        <v>160</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>161</v>
+      </c>
+      <c r="O18" t="s">
+        <v>106</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>164</v>
+      </c>
+      <c r="J19" t="s">
+        <v>165</v>
+      </c>
+      <c r="K19" t="s">
+        <v>166</v>
+      </c>
+      <c r="L19" t="s">
+        <v>167</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>161</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>168</v>
+      </c>
+      <c r="X19" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J20" t="s">
+        <v>173</v>
+      </c>
+      <c r="K20" t="s">
+        <v>174</v>
+      </c>
+      <c r="L20" t="s">
+        <v>175</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>176</v>
+      </c>
+      <c r="O20" t="s">
+        <v>106</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>178</v>
+      </c>
+      <c r="J21" t="s">
+        <v>179</v>
+      </c>
+      <c r="K21" t="s">
+        <v>180</v>
+      </c>
+      <c r="L21" t="s">
+        <v>181</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>183</v>
+      </c>
+      <c r="J22" t="s">
+        <v>184</v>
+      </c>
+      <c r="K22" t="s">
+        <v>185</v>
+      </c>
+      <c r="L22" t="s">
+        <v>186</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>176</v>
+      </c>
+      <c r="O22" t="s">
+        <v>106</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>188</v>
+      </c>
+      <c r="J23" t="s">
+        <v>189</v>
+      </c>
+      <c r="K23" t="s">
+        <v>190</v>
+      </c>
+      <c r="L23" t="s">
+        <v>191</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>192</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>193</v>
+      </c>
+      <c r="J24" t="s">
+        <v>194</v>
+      </c>
+      <c r="K24" t="s">
+        <v>195</v>
+      </c>
+      <c r="L24" t="s">
+        <v>196</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>197</v>
+      </c>
+      <c r="O24" t="s">
+        <v>127</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>199</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>200</v>
+      </c>
+      <c r="J25" t="s">
+        <v>201</v>
+      </c>
+      <c r="K25" t="s">
+        <v>202</v>
+      </c>
+      <c r="L25" t="s">
+        <v>203</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>204</v>
+      </c>
+      <c r="O25" t="s">
+        <v>127</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>205</v>
+      </c>
+      <c r="X25" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>209</v>
+      </c>
+      <c r="J26" t="s">
+        <v>210</v>
+      </c>
+      <c r="K26" t="s">
+        <v>211</v>
+      </c>
+      <c r="L26" t="s">
+        <v>212</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>213</v>
+      </c>
+      <c r="O26" t="s">
+        <v>106</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>215</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>216</v>
+      </c>
+      <c r="J27" t="s">
+        <v>217</v>
+      </c>
+      <c r="K27" t="s">
+        <v>218</v>
+      </c>
+      <c r="L27" t="s">
+        <v>219</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>220</v>
+      </c>
+      <c r="O27" t="s">
+        <v>106</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>221</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>222</v>
+      </c>
+      <c r="J28" t="s">
+        <v>223</v>
+      </c>
+      <c r="K28" t="s">
+        <v>224</v>
+      </c>
+      <c r="L28" t="s">
+        <v>225</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>226</v>
+      </c>
+      <c r="O28" t="s">
+        <v>106</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>227</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>228</v>
+      </c>
+      <c r="J29" t="s">
+        <v>229</v>
+      </c>
+      <c r="K29" t="s">
+        <v>230</v>
+      </c>
+      <c r="L29" t="s">
+        <v>231</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>232</v>
+      </c>
+      <c r="O29" t="s">
+        <v>106</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>234</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>235</v>
+      </c>
+      <c r="J30" t="s">
+        <v>236</v>
+      </c>
+      <c r="K30" t="s">
+        <v>237</v>
+      </c>
+      <c r="L30" t="s">
+        <v>238</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>239</v>
+      </c>
+      <c r="O30" t="s">
+        <v>127</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>240</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>241</v>
+      </c>
+      <c r="J31" t="s">
+        <v>242</v>
+      </c>
+      <c r="K31" t="s">
+        <v>243</v>
+      </c>
+      <c r="L31" t="s">
+        <v>244</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>245</v>
+      </c>
+      <c r="O31" t="s">
+        <v>106</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>246</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>247</v>
+      </c>
+      <c r="J32" t="s">
+        <v>248</v>
+      </c>
+      <c r="K32" t="s">
+        <v>249</v>
+      </c>
+      <c r="L32" t="s">
+        <v>250</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>251</v>
+      </c>
+      <c r="O32" t="s">
+        <v>127</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>252</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>253</v>
+      </c>
+      <c r="J33" t="s">
+        <v>254</v>
+      </c>
+      <c r="K33" t="s">
+        <v>255</v>
+      </c>
+      <c r="L33" t="s">
+        <v>256</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>251</v>
+      </c>
+      <c r="O33" t="s">
+        <v>106</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>257</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>258</v>
+      </c>
+      <c r="J34" t="s">
+        <v>259</v>
+      </c>
+      <c r="K34" t="s">
+        <v>260</v>
+      </c>
+      <c r="L34" t="s">
+        <v>261</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>251</v>
+      </c>
+      <c r="O34" t="s">
+        <v>106</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>263</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>264</v>
+      </c>
+      <c r="J35" t="s">
+        <v>265</v>
+      </c>
+      <c r="K35" t="s">
+        <v>266</v>
+      </c>
+      <c r="L35" t="s">
+        <v>267</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>251</v>
+      </c>
+      <c r="O35" t="s">
+        <v>106</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>268</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>269</v>
+      </c>
+      <c r="J36" t="s">
+        <v>270</v>
+      </c>
+      <c r="K36" t="s">
+        <v>271</v>
+      </c>
+      <c r="L36" t="s">
+        <v>272</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>273</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_114.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_114.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="431">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,105 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r607375528-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>674319</t>
+  </si>
+  <si>
+    <t>607375528</t>
+  </si>
+  <si>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>They gave us keys to an already occupied room!</t>
+  </si>
+  <si>
+    <t>We checked in after our flight on the afternoon of 8/15 and were "checked into" and given keys to Room 110.  When we opened the door we found that the room was already occupied by another guest!  We gave our apologies and went back to the front desk.  The clerk did not handle the situation well at all.  Instead of apologizing to us and immediately checking us into another room, she stood staring at her computer.  After several minutes of silence, we asked that she please provide an alternate room.  She said she was trying to figure out who was in Room 110!  At a minimum, there should have been an apology and a resolution of our issue, then after that she could figure out her error.  Very poor customer service.  We will not stay here on future trips.On a positive note, the room was clean and the bed comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We checked in after our flight on the afternoon of 8/15 and were "checked into" and given keys to Room 110.  When we opened the door we found that the room was already occupied by another guest!  We gave our apologies and went back to the front desk.  The clerk did not handle the situation well at all.  Instead of apologizing to us and immediately checking us into another room, she stood staring at her computer.  After several minutes of silence, we asked that she please provide an alternate room.  She said she was trying to figure out who was in Room 110!  At a minimum, there should have been an apology and a resolution of our issue, then after that she could figure out her error.  Very poor customer service.  We will not stay here on future trips.On a positive note, the room was clean and the bed comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r604145324-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>604145324</t>
+  </si>
+  <si>
+    <t>08/07/2018</t>
+  </si>
+  <si>
+    <t>after too many flights ... a great bed!</t>
+  </si>
+  <si>
+    <t>so, I had travelled so many hours and so many flights that thankfully i booked and AMAZING PLACE!! I stayed at the one in 1350 N Sam Houston Pkwy E, Houston, TX, 77032, United States of America, (I believe is the same hotel but shows different address.. so my review goes to the one w the address im posting)..Service was great!, room was suuuuper big and suuuper clean, a whole huge comfortable bed, bathroom was super clean as well..yep super recommendend!! I dont know houston so I dont know how far it is from the malls but this is close to the airport, and! HAS A SHUTTLE!So.. If you are travelling long hours as I did, have dinner INSIDE the airport as there are not any restaurants outside, and then call the shuttle..I called the hotel and they sent it to me in 15-20 minutes, which was super good becuase it gave me exactly enough time to pick up my bags and step outside, didnt wait more than a minute for it to arrive, afterwards it was like a 10 min drive.. and ta taahh! HOTEL! they had free cookies at the hotel whic where delicious, I ate one haha it was free =)so yes!, great choice!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>so, I had travelled so many hours and so many flights that thankfully i booked and AMAZING PLACE!! I stayed at the one in 1350 N Sam Houston Pkwy E, Houston, TX, 77032, United States of America, (I believe is the same hotel but shows different address.. so my review goes to the one w the address im posting)..Service was great!, room was suuuuper big and suuuper clean, a whole huge comfortable bed, bathroom was super clean as well..yep super recommendend!! I dont know houston so I dont know how far it is from the malls but this is close to the airport, and! HAS A SHUTTLE!So.. If you are travelling long hours as I did, have dinner INSIDE the airport as there are not any restaurants outside, and then call the shuttle..I called the hotel and they sent it to me in 15-20 minutes, which was super good becuase it gave me exactly enough time to pick up my bags and step outside, didnt wait more than a minute for it to arrive, afterwards it was like a 10 min drive.. and ta taahh! HOTEL! they had free cookies at the hotel whic where delicious, I ate one haha it was free =)so yes!, great choice!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r594366593-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>594366593</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>The rooms were great, the staff helpful, the breakfast good and satisfying, the pool and hot tub were nice bonus.  Plenty of parking, easy to get to, close the airport, I thoroughly enjoyed my stay and my sons extended stay.  thank you</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r584288124-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>584288124</t>
+  </si>
+  <si>
+    <t>06/01/2018</t>
+  </si>
+  <si>
+    <t>Top notch customer service</t>
+  </si>
+  <si>
+    <t>We travelled to Houston in Sep last year and was pleasantly surprised when we found this hotel. Lovely spacious room. Excellent customer service from Andrew and Bianney. We would most definitely return here</t>
+  </si>
+  <si>
+    <t>September 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r564202130-Comfort_Suites-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>674319</t>
-  </si>
-  <si>
     <t>564202130</t>
   </si>
   <si>
@@ -177,9 +264,6 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r561783730-Comfort_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -216,6 +300,48 @@
     <t>January 2018</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r527449133-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>527449133</t>
+  </si>
+  <si>
+    <t>09/25/2017</t>
+  </si>
+  <si>
+    <t>Modern good motel</t>
+  </si>
+  <si>
+    <t>There are so many Choice Hotel properties in north Houston that it's confusing as to which one you're staying in -- check the address!  This property is definitely one of their "above average" motels.  It has a modern look with modern amenities -- more like a Hyatt Place than a typical Comfort Inn.  Rooms are stylish and comfortable.  Fresh baked cookies in the evening.  Breakfast slightly better than average for the chain.  At the right price, this is a good choice for a night or two in the area.  Convenient to the IAH airport, at least with a car.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r508580929-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>508580929</t>
+  </si>
+  <si>
+    <t>08/03/2017</t>
+  </si>
+  <si>
+    <t>Good Location Comfy Rooms</t>
+  </si>
+  <si>
+    <t>It's around 22 USD from the airport, however there is a shuttle bus option which is free for guests. Make sure you call them beforehand and tell them your arrival time and terminal. The rooms are cozy, the staff is very helpful. Unfortunately during our stay the Internet was down and when we were checking out, it was still not working which was weird as it had been more than 24 hours already. The hotel has hot American breakfast which is average. Paper plates and plastic cutlery was a bit inconvenient, at least normal plates could be much better. Never mind, it was an overnight hotel for us and it worked perfectly for us. Sharon from reception is a very sweet and helpful staff. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2017</t>
+  </si>
+  <si>
+    <t>It's around 22 USD from the airport, however there is a shuttle bus option which is free for guests. Make sure you call them beforehand and tell them your arrival time and terminal. The rooms are cozy, the staff is very helpful. Unfortunately during our stay the Internet was down and when we were checking out, it was still not working which was weird as it had been more than 24 hours already. The hotel has hot American breakfast which is average. Paper plates and plastic cutlery was a bit inconvenient, at least normal plates could be much better. Never mind, it was an overnight hotel for us and it worked perfectly for us. Sharon from reception is a very sweet and helpful staff. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r481814355-Comfort_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -270,10 +396,43 @@
     <t>February 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>United provided the room here due to a missed connection.  I called for the complimentary shuttle and was told it would pick me up in 10 minutes. Thirty minutes later it had not arrived so I called the hotel, there was no answer. Ten minutes later I called again, no one answered. Finally 50 minutes after my first phone call I spoke to a clerk who explained the shuttle driver had picked up guests for another hotel and was taking care of that. An hour after my 1st call I was picked up.  As we drove from the airport to hotel the driver answered her cell phone while driving. I asked her to get off the phone while driving. She scowled and offered no apology. The clerk at the front desk was very nice but clearly another clerk should have been working. When I got to my room the toilet handle fell off, the toilet kept running till I reattached the handle and figured out how to make it stop running. One of the in-room phones to call the front desk was not working, the other was missing a faceplate. The in-room clock was one hour off.  There is no local restaurant near the hotel.  The next morning I had a reservation for the 5:30AM shuttle but was rushed into the shuttle at 5:10 because another guest was in a hurry. The manager drove the shuttle and apologized for the...United provided the room here due to a missed connection.  I called for the complimentary shuttle and was told it would pick me up in 10 minutes. Thirty minutes later it had not arrived so I called the hotel, there was no answer. Ten minutes later I called again, no one answered. Finally 50 minutes after my first phone call I spoke to a clerk who explained the shuttle driver had picked up guests for another hotel and was taking care of that. An hour after my 1st call I was picked up.  As we drove from the airport to hotel the driver answered her cell phone while driving. I asked her to get off the phone while driving. She scowled and offered no apology. The clerk at the front desk was very nice but clearly another clerk should have been working. When I got to my room the toilet handle fell off, the toilet kept running till I reattached the handle and figured out how to make it stop running. One of the in-room phones to call the front desk was not working, the other was missing a faceplate. The in-room clock was one hour off.  There is no local restaurant near the hotel.  The next morning I had a reservation for the 5:30AM shuttle but was rushed into the shuttle at 5:10 because another guest was in a hurry. The manager drove the shuttle and apologized for the problems. He said things run differently at night. That is no excuse for allowing the unsafe practice of driving while on a cell phone. United paid for the room otherwise I would have demanded a full refund.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r431412726-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>431412726</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>Very peaceful night sleep, great location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great room,modern update and spacious. Very clean and comfortable bed. Had a very restful night...front desk staff friendly and helpful. Great location for quick overnight stay. Even with many other hotels nearby </t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r383042355-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>383042355</t>
+  </si>
+  <si>
+    <t>06/16/2016</t>
+  </si>
+  <si>
+    <t>Great Stay for a Good Price</t>
+  </si>
+  <si>
+    <t>Found this on Expedia and was not disappointed.Room was larger than a normal room and had a small room divider that essentially made it into a suite so that one could work/read/watch TV without disturbing someone asleep.Room was clean and staff was very responsive.All day coffee and tea was appreciated. Breakfast was better than average -- I loved the Texas-shaped waffle iron!Longer pool hours (currently 10 am - 10 pm) would have been nice; all day sports rooms is well-equipped for this size hotel.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r374946711-Comfort_Suites-Houston_Texas.html</t>
@@ -344,6 +503,45 @@
 I went downstairs and asked to speak to the manager. She didn't seem to care about my situation and informed me over and over that they were not affiliated with Choice hotels. She stated that information did not apply to her hotel. She disregarded all of the information from the various sources of evidence I gathered that did NOT show restricted shuttle operation hours. Even when I showed her the picture that I took of the information booklet in the room that...I booked this hotel for a quick one night stay while laying over in Houston. Let me start off by saying that I spend approximately 10-12 nights per month in hotels... This was by far the worst hotel experience that I have ever had. The whole reason that I booked this hotel was because it was the right price and it offered a complimentary airport shuttle service. You can imagine my frustration when my flight got in at 4:07PM on a Tuesday and I called to be picked up from the airport to be informed by a rude front desk member that the shuttle had stopped operating for the day at 4:00PM! I got stuck with a $25 cab ride. I took some time to gather my thoughts and collect information from numerous sources both online and from the hotel information booklet in my room that there were no "hours of operation" for the shuttle service clarified anywhere.I went downstairs and asked to speak to the manager. She didn't seem to care about my situation and informed me over and over that they were not affiliated with Choice hotels. She stated that information did not apply to her hotel. She disregarded all of the information from the various sources of evidence I gathered that did NOT show restricted shuttle operation hours. Even when I showed her the picture that I took of the information booklet in the room that said "Available Monday-Friday" she did not seem to care. I told her that if they operate 8AM-4PM then their booklets and information online needs to be updated to explicitly state "Monday-Friday 8AM-4PM". I realized that speaking with her was not going to get me anywhere. She refused to reimburse me for my cab expense. I am not quite sure how the other reviewer below me got lucky enough to be reimbursed... I went back upstairs to my room and called Choice hotels customer service line. The information that I learned from them was very interesting! This hotel had so many complaints and such a bad reputation that Choice hotels has actually suspended them from their franchise! This means that you won't be getting Choice hotel points at this location either! The Choice hotel customer service representative told me that they had been suspended relatively recently and that they had 30 days to remove all of their affiliations with Choice hotels.Later that night, I witnessed a front desk employee yelling and cussing out a customer and subsequently flipping them off. I was shocked! I have never witnessed such terrible customer service by so many employees in such a short amount of time. These employees do not care about their standard of service or their customers whatsoever. Do yourself a favor and stay somewhere else. With the extra money that I was forced to spend on a cab, I easily could've stayed at a slightly more expensive hotel that would have served me better.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r272045971-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>272045971</t>
+  </si>
+  <si>
+    <t>05/14/2015</t>
+  </si>
+  <si>
+    <t>Very stylish</t>
+  </si>
+  <si>
+    <t>I stopped down for a quick overnight stay/business meeting. While I was a little disappointed at first when the shuttle driver never showed up and I had to take a cab. Teresa (clerk) and the manager were nice enough to reimburse me for the cab ride. The lobby was clean and the rooms were very nice. Although they should have a TV in the living room area as well as the bedroom area. It was a little strange where the TV was placed on the dresser. The lack of proper placement of the hotel and local restaurants was poor. We were able to order some decent Chinese food. After coming from a very cold climate it would have been amazing if the pool were heated. Yes, the walls are very thin, I thought someone was having issues in the next room as I laid down to fall asleep, however it was a gentleman snoring. For the one night business meeting purpose the hotel fit my needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>I stopped down for a quick overnight stay/business meeting. While I was a little disappointed at first when the shuttle driver never showed up and I had to take a cab. Teresa (clerk) and the manager were nice enough to reimburse me for the cab ride. The lobby was clean and the rooms were very nice. Although they should have a TV in the living room area as well as the bedroom area. It was a little strange where the TV was placed on the dresser. The lack of proper placement of the hotel and local restaurants was poor. We were able to order some decent Chinese food. After coming from a very cold climate it would have been amazing if the pool were heated. Yes, the walls are very thin, I thought someone was having issues in the next room as I laid down to fall asleep, however it was a gentleman snoring. For the one night business meeting purpose the hotel fit my needs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r228217619-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>228217619</t>
+  </si>
+  <si>
+    <t>09/10/2014</t>
+  </si>
+  <si>
+    <t>Subpar Experience</t>
+  </si>
+  <si>
+    <t>The walls in this hotel are paper-thin. Had difficulty sleeping because you could actually hear normal conversations through the walls. Not to mention television sound from adjoining rooms. Customer service was lacking. Almost as if they didn't care what you think.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r225790606-Comfort_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -359,9 +557,6 @@
     <t>No shuttle service on the weekends. Front desk help very unhelpful and rude. Front desk help talks to guests about other guests in a derogatory manner. Quality Suites across the beltway is a much better hotel.  Please save yourself a headache and don't stay at the Comfort Suites 1350 N Sam Houston Pkwy East Houston Texas 77032.</t>
   </si>
   <si>
-    <t>September 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r221120257-Comfort_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -401,12 +596,88 @@
     <t>May 2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>We booked this hotel because of the good reviews on Tripadvisor. We were not disappointed, on check in the staff were very pleasant and gave us a free upgrade. The room was on the 3rd floor and was very spacious and comfortable, we had the biggest bed we have ever seen and found it comfortable, we also had a fridge, microwave and coffee maker in the room as well as a table and sofa and chairs. We had the complimentry breakfast every morning and found the food available to be of a high standard and there was everything there that we needed. Would I stay here again, yes, would I recommend it, yes.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r207884691-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>207884691</t>
+  </si>
+  <si>
+    <t>05/29/2014</t>
+  </si>
+  <si>
+    <t>Worst GM of any property I've ever stayed at... PERIOD!</t>
+  </si>
+  <si>
+    <t>And to clear the air before we begin, this is the Comfort Suites right of the Sam Houston Toll Road, close to the Bush Intercontinental Airport. Matter of fact here's the exact address so that there will be NO doubt as to where this hotel is so that one can avoid it in the future.
+  1350 N. Sam Houston Parkway East
+  Houston, TX, US, 77032
+  Phone: (281) 219-0400
+In town on business with colleagues and we all experienced one bad thing after the other. No heat, leaking water from the bathtub, broken fixtures all around the room, and super soiled sofa and chair. When asked when these items would be repaired we were given the run-around by the front desk clerks who kept deferring it all to some GM named "Lucy" who they could never find. Where is Lucy? We didn't see her in over two weeks. Never ever meet an Assistant Manager either. Not once. One of our party wanted to call the owner of the hotel but was told... "We don't know who that is really". 
+Lucy apparently rocks Banker's Hours. It took a good 3 days to get the heat working! adjustment to our bill? Hardly.
+Hotel sits out in the middle of a field next to absolutely nothing. Shell station maybe a mile down the road is what's closest. Rooms are in dire need of an upgrade. Everything is old and worn, more like a Roadway...And to clear the air before we begin, this is the Comfort Suites right of the Sam Houston Toll Road, close to the Bush Intercontinental Airport. Matter of fact here's the exact address so that there will be NO doubt as to where this hotel is so that one can avoid it in the future.  1350 N. Sam Houston Parkway East  Houston, TX, US, 77032  Phone: (281) 219-0400In town on business with colleagues and we all experienced one bad thing after the other. No heat, leaking water from the bathtub, broken fixtures all around the room, and super soiled sofa and chair. When asked when these items would be repaired we were given the run-around by the front desk clerks who kept deferring it all to some GM named "Lucy" who they could never find. Where is Lucy? We didn't see her in over two weeks. Never ever meet an Assistant Manager either. Not once. One of our party wanted to call the owner of the hotel but was told... "We don't know who that is really". Lucy apparently rocks Banker's Hours. It took a good 3 days to get the heat working! adjustment to our bill? Hardly.Hotel sits out in the middle of a field next to absolutely nothing. Shell station maybe a mile down the road is what's closest. Rooms are in dire need of an upgrade. Everything is old and worn, more like a Roadway Inn than a Comfort Suites.If this owner is smart he / she will fire GM Lucy tomorrow and get someone in here who can take care of guests in a timely manner. Overall a horrible time.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>GM_Lucy14, General Manager at Comfort Suites, responded to this reviewResponded June 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2014</t>
+  </si>
+  <si>
+    <t>And to clear the air before we begin, this is the Comfort Suites right of the Sam Houston Toll Road, close to the Bush Intercontinental Airport. Matter of fact here's the exact address so that there will be NO doubt as to where this hotel is so that one can avoid it in the future.
+  1350 N. Sam Houston Parkway East
+  Houston, TX, US, 77032
+  Phone: (281) 219-0400
+In town on business with colleagues and we all experienced one bad thing after the other. No heat, leaking water from the bathtub, broken fixtures all around the room, and super soiled sofa and chair. When asked when these items would be repaired we were given the run-around by the front desk clerks who kept deferring it all to some GM named "Lucy" who they could never find. Where is Lucy? We didn't see her in over two weeks. Never ever meet an Assistant Manager either. Not once. One of our party wanted to call the owner of the hotel but was told... "We don't know who that is really". 
+Lucy apparently rocks Banker's Hours. It took a good 3 days to get the heat working! adjustment to our bill? Hardly.
+Hotel sits out in the middle of a field next to absolutely nothing. Shell station maybe a mile down the road is what's closest. Rooms are in dire need of an upgrade. Everything is old and worn, more like a Roadway...And to clear the air before we begin, this is the Comfort Suites right of the Sam Houston Toll Road, close to the Bush Intercontinental Airport. Matter of fact here's the exact address so that there will be NO doubt as to where this hotel is so that one can avoid it in the future.  1350 N. Sam Houston Parkway East  Houston, TX, US, 77032  Phone: (281) 219-0400In town on business with colleagues and we all experienced one bad thing after the other. No heat, leaking water from the bathtub, broken fixtures all around the room, and super soiled sofa and chair. When asked when these items would be repaired we were given the run-around by the front desk clerks who kept deferring it all to some GM named "Lucy" who they could never find. Where is Lucy? We didn't see her in over two weeks. Never ever meet an Assistant Manager either. Not once. One of our party wanted to call the owner of the hotel but was told... "We don't know who that is really". Lucy apparently rocks Banker's Hours. It took a good 3 days to get the heat working! adjustment to our bill? Hardly.Hotel sits out in the middle of a field next to absolutely nothing. Shell station maybe a mile down the road is what's closest. Rooms are in dire need of an upgrade. Everything is old and worn, more like a Roadway Inn than a Comfort Suites.If this owner is smart he / she will fire GM Lucy tomorrow and get someone in here who can take care of guests in a timely manner. Overall a horrible time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r206060963-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>206060963</t>
+  </si>
+  <si>
+    <t>05/18/2014</t>
+  </si>
+  <si>
+    <t>STAY AWAY</t>
+  </si>
+  <si>
+    <t>When I arrived to check in, the desk clerk assigned me a room, but when she tried to process the key, discovered there was already someone in that room, so had to start over again and give me a different room.
+When I did get to my room, I thought the room was already occupied:  the lights &amp; TV were on, and the sofa-bed was extended for a sofa.
+And there was a turd floating in the toilet.
+Front desk said the room was empty, and the sheets &amp; bathroom towels seemed clean, so I bolted the door and stayed -- it was 12:30 a.m. at this point and I needed to be at client site by 7:30 a.m.
+Folding up the sofa bed, discovered it was broken and unusable.
+The carpet was sticky -- I kept my shoes and/or socks on while in the room.
+Besides the broken sofabed, an armchair was also unusable, and one of the light fixtures in the bathroom was held together with tape.
+The air condition was "on"  -- which created arctic conditions -- or "off" -- which meant the room rapidly became hot (there was a heat wave including 100 F temperatures the week I was there).  The thermostat meant nothing.
+The elevator made horrific noises and once stalled between floors -- I was trapped for 10 minutes until someone "rebooted" the system and let me out.  I used the stairs after that....When I arrived to check in, the desk clerk assigned me a room, but when she tried to process the key, discovered there was already someone in that room, so had to start over again and give me a different room.When I did get to my room, I thought the room was already occupied:  the lights &amp; TV were on, and the sofa-bed was extended for a sofa.And there was a turd floating in the toilet.Front desk said the room was empty, and the sheets &amp; bathroom towels seemed clean, so I bolted the door and stayed -- it was 12:30 a.m. at this point and I needed to be at client site by 7:30 a.m.Folding up the sofa bed, discovered it was broken and unusable.The carpet was sticky -- I kept my shoes and/or socks on while in the room.Besides the broken sofabed, an armchair was also unusable, and one of the light fixtures in the bathroom was held together with tape.The air condition was "on"  -- which created arctic conditions -- or "off" -- which meant the room rapidly became hot (there was a heat wave including 100 F temperatures the week I was there).  The thermostat meant nothing.The elevator made horrific noises and once stalled between floors -- I was trapped for 10 minutes until someone "rebooted" the system and let me out.  I used the stairs after that.There is a gas station that sells beer about 0.75 mile away, and the lobby filled up with construction and oil rig workers drinking heavily and making grossly inappropriate comments to and about the women guests.1/4 of the cable TV stations did not work.The closet door was broken, and the shelf was lying on the floor.The maids did not service the room 2 of the 5 days I was there.I had to go behind the counter to the office to wake up the desk clerk to check out (and he was P!$$ED I woke him up!).I would not board a dog there, let alone advise people to stay there.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ree A, General Manager at Comfort Suites, responded to this reviewResponded May 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2014</t>
+  </si>
+  <si>
+    <t>When I arrived to check in, the desk clerk assigned me a room, but when she tried to process the key, discovered there was already someone in that room, so had to start over again and give me a different room.
+When I did get to my room, I thought the room was already occupied:  the lights &amp; TV were on, and the sofa-bed was extended for a sofa.
+And there was a turd floating in the toilet.
+Front desk said the room was empty, and the sheets &amp; bathroom towels seemed clean, so I bolted the door and stayed -- it was 12:30 a.m. at this point and I needed to be at client site by 7:30 a.m.
+Folding up the sofa bed, discovered it was broken and unusable.
+The carpet was sticky -- I kept my shoes and/or socks on while in the room.
+Besides the broken sofabed, an armchair was also unusable, and one of the light fixtures in the bathroom was held together with tape.
+The air condition was "on"  -- which created arctic conditions -- or "off" -- which meant the room rapidly became hot (there was a heat wave including 100 F temperatures the week I was there).  The thermostat meant nothing.
+The elevator made horrific noises and once stalled between floors -- I was trapped for 10 minutes until someone "rebooted" the system and let me out.  I used the stairs after that....When I arrived to check in, the desk clerk assigned me a room, but when she tried to process the key, discovered there was already someone in that room, so had to start over again and give me a different room.When I did get to my room, I thought the room was already occupied:  the lights &amp; TV were on, and the sofa-bed was extended for a sofa.And there was a turd floating in the toilet.Front desk said the room was empty, and the sheets &amp; bathroom towels seemed clean, so I bolted the door and stayed -- it was 12:30 a.m. at this point and I needed to be at client site by 7:30 a.m.Folding up the sofa bed, discovered it was broken and unusable.The carpet was sticky -- I kept my shoes and/or socks on while in the room.Besides the broken sofabed, an armchair was also unusable, and one of the light fixtures in the bathroom was held together with tape.The air condition was "on"  -- which created arctic conditions -- or "off" -- which meant the room rapidly became hot (there was a heat wave including 100 F temperatures the week I was there).  The thermostat meant nothing.The elevator made horrific noises and once stalled between floors -- I was trapped for 10 minutes until someone "rebooted" the system and let me out.  I used the stairs after that.There is a gas station that sells beer about 0.75 mile away, and the lobby filled up with construction and oil rig workers drinking heavily and making grossly inappropriate comments to and about the women guests.1/4 of the cable TV stations did not work.The closet door was broken, and the shelf was lying on the floor.The maids did not service the room 2 of the 5 days I was there.I had to go behind the counter to the office to wake up the desk clerk to check out (and he was P!$$ED I woke him up!).I would not board a dog there, let alone advise people to stay there.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r205852465-Comfort_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -422,12 +693,6 @@
     <t>Budget cuts have forced our business excursions to cut expenditures, which is not really a bad thing.  Stayed at Comfort Suites with large group.  Room was very comfortable and large.  I felt very spoiled with all that space to myself.  Complimentary breakfast wasn't too bad - usual fare.  The only problem was the check-in and -out.  We had a large group and tried to work with them ahead of time to have paperwork ready for both times.  They seemed to not be able to wrap their heads around this concept.  They almost seemed annoyed that there were so many of us at once.MoreShow less</t>
   </si>
   <si>
-    <t>Ree A, General Manager at Comfort Suites, responded to this reviewResponded May 21, 2014</t>
-  </si>
-  <si>
-    <t>Responded May 21, 2014</t>
-  </si>
-  <si>
     <t>Budget cuts have forced our business excursions to cut expenditures, which is not really a bad thing.  Stayed at Comfort Suites with large group.  Room was very comfortable and large.  I felt very spoiled with all that space to myself.  Complimentary breakfast wasn't too bad - usual fare.  The only problem was the check-in and -out.  We had a large group and tried to work with them ahead of time to have paperwork ready for both times.  They seemed to not be able to wrap their heads around this concept.  They almost seemed annoyed that there were so many of us at once.More</t>
   </si>
   <si>
@@ -446,9 +711,6 @@
     <t>Have stayed at this particular Comfort Suites many times over the last year as the energy company I work for is headquartered in Houston. Girl by the name of Lucy "runs" the place and she's all talk and NO action.With each stay there is more and more items in the rooms that require attention or things that need to be cleaned. Dirty bathrooms, broken fixtures, and lumpy mattresses. You'll report an circumstance that needs repair and even mention it to Lucy... and 3 weeks later when you return... it still will not be fixed. That is if you can ever find Lucy. Front desk always that she is out "running errands". Unreal. At this point this hotel is all about soaking guests for every last penny. Very sad to see such a decline in such a short time and extremely difficult to see such an inept GM such as Lucy attempting to keep this thing afloat.My firm has pulled the plug with this this hotel and capped off any further business.MoreShow less</t>
   </si>
   <si>
-    <t>March 2014</t>
-  </si>
-  <si>
     <t>Have stayed at this particular Comfort Suites many times over the last year as the energy company I work for is headquartered in Houston. Girl by the name of Lucy "runs" the place and she's all talk and NO action.With each stay there is more and more items in the rooms that require attention or things that need to be cleaned. Dirty bathrooms, broken fixtures, and lumpy mattresses. You'll report an circumstance that needs repair and even mention it to Lucy... and 3 weeks later when you return... it still will not be fixed. That is if you can ever find Lucy. Front desk always that she is out "running errands". Unreal. At this point this hotel is all about soaking guests for every last penny. Very sad to see such a decline in such a short time and extremely difficult to see such an inept GM such as Lucy attempting to keep this thing afloat.My firm has pulled the plug with this this hotel and capped off any further business.More</t>
   </si>
   <si>
@@ -473,6 +735,39 @@
     <t>I stayed at this property a few months ago. The Heating did not work in several rooms but the staff refused to acknowledge that the Heating did not work. Temperature inside the room dropped below 50 F. To top it off Choice Hotels has refused to acknowledge the problem and refused to acknowledge my stay there. I still have my reservation confirmation electronic bill and the paper receipt but they refuse to acknowledge the stay on my Choice Privileges account. Since that stay I've stayed over 90 nights in different hotels (I've traveled every week but one this year) and have decided that the Choice Hotel system in general is simply a poor overall value with service that fails to match that of ANY of the other Hotel groups.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r194103919-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>194103919</t>
+  </si>
+  <si>
+    <t>02/14/2014</t>
+  </si>
+  <si>
+    <t>Poor service</t>
+  </si>
+  <si>
+    <t>We stayed here both going and coming home from our vacation.  Waited 1 hr. 15 minutes for the shuttle to pick us up from the airport. On the way back, waited an hour. Luckily we didn't have this problem with the morning shuttle. Desk service was also slow. We will not stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r192752499-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>192752499</t>
+  </si>
+  <si>
+    <t>02/01/2014</t>
+  </si>
+  <si>
+    <t>Good in a pinch</t>
+  </si>
+  <si>
+    <t>Got a great price on Expedia so decided to stay the one night as they have shuttle service to the airport. Dropped off our rental car early so we would not have the hassle flight morning.  Shuttle was friendly, front staff friendly.  Room was ok but could hear nothing but the traffic all night long and the people stomping up above.  The breakfast was great with eggs, sausages, cereals, yogurts and fruit.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r186948651-Comfort_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -533,6 +828,45 @@
     <t>We arrived at IAH airport, and called for the shuttle. It arrived in a few minutes. The shuttle looked brand new (white mini-van). I asked the driver to stop by Alwadi Mediterranean sandwiches, and he said no problem. I got the order to go, and we went to the hotel. Check-in was no problem. Our room was clean, everything in order. My room was facing the road, but I had brought a small fan, and I didn't hear any road noise. Breakfast was the standard Comfort Suites breakfast (scrambled eggs, meat, make your own waffles, etc). Later that evening, I called the front desk, and asked if the shuttle would take us to Wal-Mart. They said no problem, and they drove us to a Wal-Mart, and me and my wife walked across the street and went to Whataburger for supper. We called from Whataburger, and they came to pick us up. This is a great service they provide. (free transportation within 5 miles) The next morning, they took us to the airport, to pick up my transportation to the cruise terminal in Galveston. Excellent experience, would highly recommend.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r172290663-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>172290663</t>
+  </si>
+  <si>
+    <t>08/14/2013</t>
+  </si>
+  <si>
+    <t>Outstanding Comfort Suites in Houston</t>
+  </si>
+  <si>
+    <t>On October 19, 2012, I arrived at this Comfort Suites, 1350 N. Sam Houston Parkway East, Houston, TX after attending a cousin's wedding.  This hotel was GREAT!  The room was clean.  The entire hotel was inviting.  I highly recommend this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>On October 19, 2012, I arrived at this Comfort Suites, 1350 N. Sam Houston Parkway East, Houston, TX after attending a cousin's wedding.  This hotel was GREAT!  The room was clean.  The entire hotel was inviting.  I highly recommend this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r164333961-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>164333961</t>
+  </si>
+  <si>
+    <t>06/17/2013</t>
+  </si>
+  <si>
+    <t>Great Hotel.  Free Airport Parking!</t>
+  </si>
+  <si>
+    <t>This hotel was a standard Comfort Suites with all the amenities plus free parking.  Doesn't get any better than that!!  Very clean, efficient staff, comfortable beds, and a free shuttle to the airport.  I highly recommend this hotel and will stay here every time I fly out of IAH.  Loved it!</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r162527571-Comfort_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -579,6 +913,54 @@
   </si>
   <si>
     <t>the basic services are just the ones offered by the hampton inns (free wifi, free breakfast, free parking, etc..) and the price is attractive but I must say they are not in the same league of the Hamptonsfrom the outside looks good and the lobby is good too but it has squeaky floors, old carpets, yellow bed sheetshowever, for breakfast .... comfort suites 1 - hampton inn 0 and it has an outdoor pool staff sounded like they HAD to stay there but would have loved being somewhere else</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r158630967-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>158630967</t>
+  </si>
+  <si>
+    <t>04/23/2013</t>
+  </si>
+  <si>
+    <t>Great Customer Service and Clean Hotel</t>
+  </si>
+  <si>
+    <t>My family of 4 (2 adults, 4 y/o and 5 y/o) stayed at this hotel for 1 night before the Disney Cruise. We had a great experience with this hotel.  When we arrived at 7:45 pm at IAH, I called the front desk and I was asked what terminal I was at and then the minivan (shuttle) was picking us up within 30 mins. It would be helpful if you find out what terminal you are at before you call the front desk. The hotel driver was courteous enough to drop by Subway to allow us to get a sandwich before getting to the hotel.  We were even offered to get food from other restaurants nearby if we wish.  At the hotel lobby dining area, we were able to eat there and we cleaned up the table afterward.  The room and bathroom were clean and relatively new.  There was complimentary internet service via wi-fi.  In the morning, the complimentary breakfast was great.  There were not a lot of variety but enough to choose from, but more importantly the food, juices, coffee and fruit were fresh.  However, I wish there were more tables in the dining hall, as some travelers who came down late could not find the space to sit.  After breakfast, we were on our way back to IAH, the minivan/shuttle was awaiting for us as we had given the departure time to front desk the night before.  A...My family of 4 (2 adults, 4 y/o and 5 y/o) stayed at this hotel for 1 night before the Disney Cruise. We had a great experience with this hotel.  When we arrived at 7:45 pm at IAH, I called the front desk and I was asked what terminal I was at and then the minivan (shuttle) was picking us up within 30 mins. It would be helpful if you find out what terminal you are at before you call the front desk. The hotel driver was courteous enough to drop by Subway to allow us to get a sandwich before getting to the hotel.  We were even offered to get food from other restaurants nearby if we wish.  At the hotel lobby dining area, we were able to eat there and we cleaned up the table afterward.  The room and bathroom were clean and relatively new.  There was complimentary internet service via wi-fi.  In the morning, the complimentary breakfast was great.  There were not a lot of variety but enough to choose from, but more importantly the food, juices, coffee and fruit were fresh.  However, I wish there were more tables in the dining hall, as some travelers who came down late could not find the space to sit.  After breakfast, we were on our way back to IAH, the minivan/shuttle was awaiting for us as we had given the departure time to front desk the night before.  A different hotel driver drove us to the airport.  He was polite and patient as there were road blocks at the terminals since the aftermath of the Boston marathon bombing.  Eventually, we arrived at our airline terminal to check in.  We did not have the bad experience with customer service that other reviewers had.  It must have been rectified by the management.  I would recommend staying at this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>My family of 4 (2 adults, 4 y/o and 5 y/o) stayed at this hotel for 1 night before the Disney Cruise. We had a great experience with this hotel.  When we arrived at 7:45 pm at IAH, I called the front desk and I was asked what terminal I was at and then the minivan (shuttle) was picking us up within 30 mins. It would be helpful if you find out what terminal you are at before you call the front desk. The hotel driver was courteous enough to drop by Subway to allow us to get a sandwich before getting to the hotel.  We were even offered to get food from other restaurants nearby if we wish.  At the hotel lobby dining area, we were able to eat there and we cleaned up the table afterward.  The room and bathroom were clean and relatively new.  There was complimentary internet service via wi-fi.  In the morning, the complimentary breakfast was great.  There were not a lot of variety but enough to choose from, but more importantly the food, juices, coffee and fruit were fresh.  However, I wish there were more tables in the dining hall, as some travelers who came down late could not find the space to sit.  After breakfast, we were on our way back to IAH, the minivan/shuttle was awaiting for us as we had given the departure time to front desk the night before.  A...My family of 4 (2 adults, 4 y/o and 5 y/o) stayed at this hotel for 1 night before the Disney Cruise. We had a great experience with this hotel.  When we arrived at 7:45 pm at IAH, I called the front desk and I was asked what terminal I was at and then the minivan (shuttle) was picking us up within 30 mins. It would be helpful if you find out what terminal you are at before you call the front desk. The hotel driver was courteous enough to drop by Subway to allow us to get a sandwich before getting to the hotel.  We were even offered to get food from other restaurants nearby if we wish.  At the hotel lobby dining area, we were able to eat there and we cleaned up the table afterward.  The room and bathroom were clean and relatively new.  There was complimentary internet service via wi-fi.  In the morning, the complimentary breakfast was great.  There were not a lot of variety but enough to choose from, but more importantly the food, juices, coffee and fruit were fresh.  However, I wish there were more tables in the dining hall, as some travelers who came down late could not find the space to sit.  After breakfast, we were on our way back to IAH, the minivan/shuttle was awaiting for us as we had given the departure time to front desk the night before.  A different hotel driver drove us to the airport.  He was polite and patient as there were road blocks at the terminals since the aftermath of the Boston marathon bombing.  Eventually, we arrived at our airline terminal to check in.  We did not have the bad experience with customer service that other reviewers had.  It must have been rectified by the management.  I would recommend staying at this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r156937617-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>156937617</t>
+  </si>
+  <si>
+    <t>04/07/2013</t>
+  </si>
+  <si>
+    <t>I didn't expect much from this hotel, however, I was very impressed.</t>
+  </si>
+  <si>
+    <t>I didn't expect much from this hotel, however, I was very impressed.  Check in was a breeze.  The room was very clean feeling and looking.  My only negative is that the comforter on the bed was seriously wrinkled.  It looked like it had been balled up for a long time and then put on the bed.  Also there was a medium size tare in the couch that looked like an attempt at mending it had happened.  Furthermore, I was in room 104 which faces the front of the building.  And the highway was audible.  I will say that at night when traffic has died down you cant hear it as much.  And after you've been there a couple days your ears don't even hear it.  If you are sensitive to noise then request a room near the back of the hotel and on a top floor.
+The room as well as the bathroom had cathedral ceilings which gave the room an even more spacious feel.  However, it was hard to keep a constant temperature during our spring visit. 
+The fridge kept things only nominally cold, and I even turned it up as far as it would go.  If you want to keep a drink cold then it will be fine.  Left-overs would be questionable the next day though. 
+Breakfast was decent.  It will do until you can get to lunch time and have a real meal.  The pool area looked...I didn't expect much from this hotel, however, I was very impressed.  Check in was a breeze.  The room was very clean feeling and looking.  My only negative is that the comforter on the bed was seriously wrinkled.  It looked like it had been balled up for a long time and then put on the bed.  Also there was a medium size tare in the couch that looked like an attempt at mending it had happened.  Furthermore, I was in room 104 which faces the front of the building.  And the highway was audible.  I will say that at night when traffic has died down you cant hear it as much.  And after you've been there a couple days your ears don't even hear it.  If you are sensitive to noise then request a room near the back of the hotel and on a top floor.The room as well as the bathroom had cathedral ceilings which gave the room an even more spacious feel.  However, it was hard to keep a constant temperature during our spring visit. The fridge kept things only nominally cold, and I even turned it up as far as it would go.  If you want to keep a drink cold then it will be fine.  Left-overs would be questionable the next day though. Breakfast was decent.  It will do until you can get to lunch time and have a real meal.  The pool area looked nice, however I didn't get a close up look.There were free samples, at the front desk, of Axe hair products in a basket that no one brought to my attention.  Had I not been generally nosy I would have never seen it.  Management should bring it to guests attention at check in.  The snack shop seemed to have basic necessities for purchase, and it met our needs while there. My only negative that isn't the hotels fault is the location.  It is on a weird one way street.  Our GPS was completely useless.  We learned how to get their from trial and error over several days.While I nit-picked this hotel to death, I would highly recommend it to friends.  I was more than pleased with my stay here and would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>I didn't expect much from this hotel, however, I was very impressed.  Check in was a breeze.  The room was very clean feeling and looking.  My only negative is that the comforter on the bed was seriously wrinkled.  It looked like it had been balled up for a long time and then put on the bed.  Also there was a medium size tare in the couch that looked like an attempt at mending it had happened.  Furthermore, I was in room 104 which faces the front of the building.  And the highway was audible.  I will say that at night when traffic has died down you cant hear it as much.  And after you've been there a couple days your ears don't even hear it.  If you are sensitive to noise then request a room near the back of the hotel and on a top floor.
+The room as well as the bathroom had cathedral ceilings which gave the room an even more spacious feel.  However, it was hard to keep a constant temperature during our spring visit. 
+The fridge kept things only nominally cold, and I even turned it up as far as it would go.  If you want to keep a drink cold then it will be fine.  Left-overs would be questionable the next day though. 
+Breakfast was decent.  It will do until you can get to lunch time and have a real meal.  The pool area looked...I didn't expect much from this hotel, however, I was very impressed.  Check in was a breeze.  The room was very clean feeling and looking.  My only negative is that the comforter on the bed was seriously wrinkled.  It looked like it had been balled up for a long time and then put on the bed.  Also there was a medium size tare in the couch that looked like an attempt at mending it had happened.  Furthermore, I was in room 104 which faces the front of the building.  And the highway was audible.  I will say that at night when traffic has died down you cant hear it as much.  And after you've been there a couple days your ears don't even hear it.  If you are sensitive to noise then request a room near the back of the hotel and on a top floor.The room as well as the bathroom had cathedral ceilings which gave the room an even more spacious feel.  However, it was hard to keep a constant temperature during our spring visit. The fridge kept things only nominally cold, and I even turned it up as far as it would go.  If you want to keep a drink cold then it will be fine.  Left-overs would be questionable the next day though. Breakfast was decent.  It will do until you can get to lunch time and have a real meal.  The pool area looked nice, however I didn't get a close up look.There were free samples, at the front desk, of Axe hair products in a basket that no one brought to my attention.  Had I not been generally nosy I would have never seen it.  Management should bring it to guests attention at check in.  The snack shop seemed to have basic necessities for purchase, and it met our needs while there. My only negative that isn't the hotels fault is the location.  It is on a weird one way street.  Our GPS was completely useless.  We learned how to get their from trial and error over several days.While I nit-picked this hotel to death, I would highly recommend it to friends.  I was more than pleased with my stay here and would stay here again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r155062402-Comfort_Suites-Houston_Texas.html</t>
@@ -612,9 +994,6 @@
 Breakfast- ok but not as much variety as other comfort suites.  It is the little things -the waffle batter...Where to begin!  The hotel offers a free shuttle service.  I called from the airport at 11:00 pm on a Saturday night.  I was told the shuttle was broken down  and that  would we would have to take a taxi to the hotel.  $20 later plus tip we were at the hotel.  We checked in and were given key cards to our room- the first and second set of two cards did not work. I went back down to the desk for the third time and the fifth card failed to work as well.  The front desk clerk then remembered that the previous guest had jammed their key in the lock and she guessed it didn't get fixed.  They finally gave  us another room. I asked if the shuttle was going to be fixed soon and they said it was fixed now, it just had a dead battery.  I said  great I just paid $25 ( fare + tip) for a taxi.  They asked if I had a receipt--if so they would reimburse me.  Of course I didn't, it would have been nice if the desk clerk had told me that I would be reimbursed for the taxi when I called about the shuttle.  The room was ok but had a weird smell.  The smoke detector was missing from the ceiling.   Breakfast- ok but not as much variety as other comfort suites.  It is the little things -the waffle batter said regular and cinnamon - I made cinnamon-which was really strawberry.  I asked the food service worker if the waffle mix was strawberry instead of cinnamon  she said yes but didn't bother to change the sign.We were going to stay here next week when we get back from our cruise but I have cancelled and made a reservation somewhere else.MoreShow less</t>
   </si>
   <si>
-    <t>March 2013</t>
-  </si>
-  <si>
     <t>Where to begin!  The hotel offers a free shuttle service.  I called from the airport at 11:00 pm on a Saturday night.  I was told the shuttle was broken down  and that  would we would have to take a taxi to the hotel.  $20 later plus tip we were at the hotel.  We checked in and were given key cards to our room- the first and second set of two cards did not work. I went back down to the desk for the third time and the fifth card failed to work as well.  The front desk clerk then remembered that the previous guest had jammed their key in the lock and she guessed it didn't get fixed.  They finally gave  us another room. I asked if the shuttle was going to be fixed soon and they said it was fixed now, it just had a dead battery.  I said  great I just paid $25 ( fare + tip) for a taxi.  They asked if I had a receipt--if so they would reimburse me.  Of course I didn't, it would have been nice if the desk clerk had told me that I would be reimbursed for the taxi when I called about the shuttle.  The room was ok but had a weird smell.  The smoke detector was missing from the ceiling.  
 Breakfast- ok but not as much variety as other comfort suites.  It is the little things -the waffle batter...Where to begin!  The hotel offers a free shuttle service.  I called from the airport at 11:00 pm on a Saturday night.  I was told the shuttle was broken down  and that  would we would have to take a taxi to the hotel.  $20 later plus tip we were at the hotel.  We checked in and were given key cards to our room- the first and second set of two cards did not work. I went back down to the desk for the third time and the fifth card failed to work as well.  The front desk clerk then remembered that the previous guest had jammed their key in the lock and she guessed it didn't get fixed.  They finally gave  us another room. I asked if the shuttle was going to be fixed soon and they said it was fixed now, it just had a dead battery.  I said  great I just paid $25 ( fare + tip) for a taxi.  They asked if I had a receipt--if so they would reimburse me.  Of course I didn't, it would have been nice if the desk clerk had told me that I would be reimbursed for the taxi when I called about the shuttle.  The room was ok but had a weird smell.  The smoke detector was missing from the ceiling.   Breakfast- ok but not as much variety as other comfort suites.  It is the little things -the waffle batter said regular and cinnamon - I made cinnamon-which was really strawberry.  I asked the food service worker if the waffle mix was strawberry instead of cinnamon  she said yes but didn't bother to change the sign.We were going to stay here next week when we get back from our cruise but I have cancelled and made a reservation somewhere else.More</t>
   </si>
@@ -648,6 +1027,33 @@
 I do not recommend this hotel for the lack of customer service.  Unfortunately for Comfort Suites, my sister is a travel agent and based on my experience, she will be booking her cruise clients in a different hotel from...We booked this hotel for one night between arriving at IAH and leaving on our cruise out of Galveston.  In advance, I contacted the hotel to ensure we'd have a shuttle to the hotel for our 10pm flight arrival time.  I was assured it would not be a problem, simply call when we landed.  So, I called when we landed and was told to find out which terminal we were in and to call back.  Making our way to baggage claim, I found out the terminal and called back.  I was rudely told that another party called prior to my second call and that the shuttle was picking the other party up and it would be about a 45 minute wait for us.  Really??  I had just called 10 minutes prior and she knew I would be calling back, yet she gave the shuttle to another party.  Her attitude was terrible.  No apologies or anything.  Just a "too bad" attitude.  When we arrived at the lobby, she had a little smirk on her face and was exchanging glances with another employee.  Totally unprofessional.  The room was clean, modern, and fairly new, so that was the only plus in my overall experience.I do not recommend this hotel for the lack of customer service.  Unfortunately for Comfort Suites, my sister is a travel agent and based on my experience, she will be booking her cruise clients in a different hotel from now on.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r153130516-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153130516</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>This is one of the nicest hotels for the money. The rooms were very large with a microwave, fridge, plenty of counter space, a couch and end table.  The front desk was very helpful, the hotel was clean and well kept. Will def. stay here again when in the area. I honestly cannot think of a single negative thing about the hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r152902768-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152902768</t>
+  </si>
+  <si>
+    <t>02/23/2013</t>
+  </si>
+  <si>
+    <t>Excellent unexpected stay</t>
+  </si>
+  <si>
+    <t>Large clean rooms, nice breakfast, shuttle service within 5 mi radius, close to airport and very reasonably price.  The only thing we had problems with was the vending machine which is contracted out so not within their control and they still reimbursed me.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r150603784-Comfort_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -705,6 +1111,42 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r135890375-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>135890375</t>
+  </si>
+  <si>
+    <t>07/31/2012</t>
+  </si>
+  <si>
+    <t>Great Hotel - bad shuttle</t>
+  </si>
+  <si>
+    <t>The hotel is run efficiently and has a great atmosphere.  The morning shuttle service to the airport was excellent.  My family and i returned from a trip around 8:20 on a Thurs., but never could get the shuttle to pick us up to get our vehicle at the hotel.  We waited an hour, before finally getting a taxi.  If this is resolved, then it is a great place to stay.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r129846796-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>129846796</t>
+  </si>
+  <si>
+    <t>05/13/2012</t>
+  </si>
+  <si>
+    <t>Great getaway</t>
+  </si>
+  <si>
+    <t>We stayed for a night here as a getaway as a couple.  It was hidden behind the great trees near IAH (Bush Airport).  The hotel was clean, staff was pleasant, the bedding was nice and room was clean.  Lots of good parking and convenient to the airport in a secure area.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r128443398-Comfort_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -735,9 +1177,6 @@
     <t>04/16/2012</t>
   </si>
   <si>
-    <t>Great Place to Stay</t>
-  </si>
-  <si>
     <t>We have no complaints about this hotel.  The room was perfect, the staff was very friendly, and the breakfast was great too.  I still can't believe how cheap this hotel is.  It's by far the best Comfort Suites we've stayed at and it's also the cheapest.  You can't go wrong with this place.  I did overhear a woman complaining that the airport shuttle didn't start running until 6:00 AM.  Apparently their website says that it runs 24/7.  I don't know that for sure though.</t>
   </si>
   <si>
@@ -762,13 +1201,49 @@
     <t>March 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r126673365-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>126673365</t>
+  </si>
+  <si>
+    <t>03/26/2012</t>
+  </si>
+  <si>
+    <t>Don't stay here</t>
+  </si>
+  <si>
+    <t>Arrived at 2:45 and told we could not check in because no rooms were available because were all being cleaned still.  I asked for a quiet room and was given a room on the second floor that backed up to the elevator and the ice machine.  When changing rooms, could still not get a room on the 3rd floor (which is the top floor at this location), but had a room at least not on the freeway side.  Awakened at 3:00, when the drunken guest above us decided to start stomping around his room.  Lovely.  But the icing on the cake was the second night of our stay when the front desk called our room at midnight to tell us that our neighbors were complaining about the noise.  We had been asleep for a couple of hours.  The staff couldn't be bothered to come up and check before calling.   Then, woken again when the stomping above started at 3 a.m.  We left a day early and will never stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Arrived at 2:45 and told we could not check in because no rooms were available because were all being cleaned still.  I asked for a quiet room and was given a room on the second floor that backed up to the elevator and the ice machine.  When changing rooms, could still not get a room on the 3rd floor (which is the top floor at this location), but had a room at least not on the freeway side.  Awakened at 3:00, when the drunken guest above us decided to start stomping around his room.  Lovely.  But the icing on the cake was the second night of our stay when the front desk called our room at midnight to tell us that our neighbors were complaining about the noise.  We had been asleep for a couple of hours.  The staff couldn't be bothered to come up and check before calling.   Then, woken again when the stomping above started at 3 a.m.  We left a day early and will never stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r125773330-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>125773330</t>
+  </si>
+  <si>
+    <t>03/07/2012</t>
+  </si>
+  <si>
+    <t>Great Stay, Great Staff!</t>
+  </si>
+  <si>
+    <t>I needed a hotel near the airport so I decided to give this one a try. The girl at the front desk was very friendly and helpful at check in. It was a little late and she was still very chipper and fresh. My room was nicely organized and clean. I called the desk for advice on getting something to eat. She promtly brought me some take out menu, I did not even ask her to do that, she offered. Great Service! Breakfast was good, plenty of choices for a quick breakfast before running off to the airport. I used the shuttle service and I got to the airport without any issues. All the employees were very accommodating and friendly. It was a nice change from some of the other hotel experiences I have encountered. My only regret is that I don't remember the name of the helpful agent at check in..but Kudos to the team and manager!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>I needed a hotel near the airport so I decided to give this one a try. The girl at the front desk was very friendly and helpful at check in. It was a little late and she was still very chipper and fresh. My room was nicely organized and clean. I called the desk for advice on getting something to eat. She promtly brought me some take out menu, I did not even ask her to do that, she offered. Great Service! Breakfast was good, plenty of choices for a quick breakfast before running off to the airport. I used the shuttle service and I got to the airport without any issues. All the employees were very accommodating and friendly. It was a nice change from some of the other hotel experiences I have encountered. My only regret is that I don't remember the name of the helpful agent at check in..but Kudos to the team and manager!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r125748115-Comfort_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>125748115</t>
-  </si>
-  <si>
-    <t>03/07/2012</t>
   </si>
   <si>
     <t>I loved it</t>
@@ -821,6 +1296,43 @@
 I can honestly say I enjoyed my stay at this petite hotel. It was a nice change from staying at a larger hotel where everyone most of the time is on robot mode. Here I could really tell the management...I ended up going to this location by chance. It was a long meeting day and I did not want to drive all the way back home so I decided to stay closer to the airport. I remember a co-worker of mine mention that the employees at this particular Comfort Suites were very helpful and friendly. I've personally never stayed at a Comfort Suite but I gave it a try. Surprisingly my co-worker was right. Right when I walked I was greeted with a smile and asked how they may assist me. I didn't have a reservation but the front desk clerk told me it wasn't a problem and even asked me if I had AAA, which I do, and was offered a lower rate on the spot. It was a cute little hotel and the pool area was relaxing to lounge at after a long work day. My room was cozy and nicely kept. I even enjoyed a mini workout in the fitness room.The one thing I was happy to use was the balcony computer center they offered it wasn't big but perfect for checking some work emails. Which was great because my laptop was at the office. I can honestly say I enjoyed my stay at this petite hotel. It was a nice change from staying at a larger hotel where everyone most of the time is on robot mode. Here I could really tell the management staff and employees were more like family &amp; friends because the friendly service and help showed.   If I ever need to stay while near Continental Airport I hopefully will be staying here again!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r125406305-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>125406305</t>
+  </si>
+  <si>
+    <t>02/29/2012</t>
+  </si>
+  <si>
+    <t>Great Experience</t>
+  </si>
+  <si>
+    <t>I stayed here for a conference last month staff was very friendly / free breakfast in the morning and used the shuttle twice to go to a steakhouse the room was clean and comfortable i would definitely stay here again soon</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r125322589-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>125322589</t>
+  </si>
+  <si>
+    <t>02/27/2012</t>
+  </si>
+  <si>
+    <t>Everything done halfway, start to finish</t>
+  </si>
+  <si>
+    <t>Last minute trip during a busy week in Houston meant I wound up at this property.  I'm an Elite member of the Choice Rewards program, but Choice isn't my first choice.  But it was available.  
+First sign of trouble was when I arrived in IAH. Got in about 9pm, needed to be up at 6 the next morning.  Chose to stay at an airport hotel for a reason.  Convenience.  Called the hotel for the shuttle, figuring that since it was an AIRPORT hotel, they'd have a shuttle running on a regular schedule.  Wrong.  I was told that it would be at least 30 minutes before they'd be able to send a shuttle.  Incredulously, I asked why.  I was told the driver was off on another run?  Where?  To Hobby Airport maybe?  
+After about 25 minutes, I noticed a black SUV pulling through the shuttle pickup area.  I wondered to myself why someone picking up friends or family would come into this area.  Then I saw the sign on paper in the window.  "COMFORT SUITES".  Groan.  Really?  I'm getting pickup up in an employees personal car?  Can you say "liability"?  Fine, I need sleep, I get in the car.  On the way out of the airport the driver is talking on his phone to the hotel.  He tells them the police stopped him, and if they don't have a placard for the vehicle by tomorrow, they will be cited.  How professional....Last minute trip during a busy week in Houston meant I wound up at this property.  I'm an Elite member of the Choice Rewards program, but Choice isn't my first choice.  But it was available.  First sign of trouble was when I arrived in IAH. Got in about 9pm, needed to be up at 6 the next morning.  Chose to stay at an airport hotel for a reason.  Convenience.  Called the hotel for the shuttle, figuring that since it was an AIRPORT hotel, they'd have a shuttle running on a regular schedule.  Wrong.  I was told that it would be at least 30 minutes before they'd be able to send a shuttle.  Incredulously, I asked why.  I was told the driver was off on another run?  Where?  To Hobby Airport maybe?  After about 25 minutes, I noticed a black SUV pulling through the shuttle pickup area.  I wondered to myself why someone picking up friends or family would come into this area.  Then I saw the sign on paper in the window.  "COMFORT SUITES".  Groan.  Really?  I'm getting pickup up in an employees personal car?  Can you say "liability"?  Fine, I need sleep, I get in the car.  On the way out of the airport the driver is talking on his phone to the hotel.  He tells them the police stopped him, and if they don't have a placard for the vehicle by tomorrow, they will be cited.  How professional.  A minute later, the hotel calls back.  Apparently another guest has called for a pickup.  The hotel has already shown that they don't value MY time, so the driver turns around and goes back to the airport to pick up the other guest right away.  Thanks.  By the time I finally got to the hotel, it had taken over an hour to get from the airport to my airport hotel.  How professional. The lobby was busy, and the two young ladies working the front desk were easily distracted.  Every time someone walked in, or the phone rang, the customer they were working with got ignored, and the phone got answered.  Again, thanks for valuing my time.   I finally got to my suite.  As I opened the door, I was surprised how empty it seemed.  It was a good size suite, but when built, the managers chose small furniture.  They went cheap, and purchased furniture designed to make a small hotel room look bigger.  This furniture did the opposite.  when the door to the bedroom was open, it blocked the TV in the main room.  So if you take your family to this hotel, you can't have the kids in the main room while you read in bed unless you close the door.  Good thinking.  Cost cutting at it's finest.  I had a good time listening to my upstairs neighbor placed the floor because the sound carried well.  My room was on the front side of the hotel, so the cheap construction allowed copious highway noise in all night.  If you are crazy enough to stay here, get a room on top floor, on the back side to the property.So since there's nothing in walking distance, I ordered a quick bite to eat.  After all, I had a suite with a large kitchen area.  Microwave, and a cooktop stove.  The refrigerator was not a full size unit, instead it was a cheap large dorm style unit that needed defrosting.  But that's not the best part.  As I was waiting for dinner to be delivered, I thought I'd get out a plate and silverware.  Despite all the cabinets and cooktop, there were no cooking or eating utensils in the suite!  What the heck is the point of having a kitchen with a cooktop if you can't cook?  No plates, no glassware, no cutlery.  The plastic fork and knife, plus the plastic cup from the bathroom was my fine china for my late dinner.  Stay classy Comfort Suites!All I asked for the next morning was a shuttle to take me to the airport on time.  I'll give them credit, that actually happened.  Of course it was in the black SUV, still with no proper signage on the vehicle.  If you like everything about your stay being done halfway, this is the place for you.    Otherwise, do better than I did, stay elsewhere.  I need to plan better so I can use my guaranteed availability with the other hotel chains that I have elite status with as well.  I won't stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Last minute trip during a busy week in Houston meant I wound up at this property.  I'm an Elite member of the Choice Rewards program, but Choice isn't my first choice.  But it was available.  
+First sign of trouble was when I arrived in IAH. Got in about 9pm, needed to be up at 6 the next morning.  Chose to stay at an airport hotel for a reason.  Convenience.  Called the hotel for the shuttle, figuring that since it was an AIRPORT hotel, they'd have a shuttle running on a regular schedule.  Wrong.  I was told that it would be at least 30 minutes before they'd be able to send a shuttle.  Incredulously, I asked why.  I was told the driver was off on another run?  Where?  To Hobby Airport maybe?  
+After about 25 minutes, I noticed a black SUV pulling through the shuttle pickup area.  I wondered to myself why someone picking up friends or family would come into this area.  Then I saw the sign on paper in the window.  "COMFORT SUITES".  Groan.  Really?  I'm getting pickup up in an employees personal car?  Can you say "liability"?  Fine, I need sleep, I get in the car.  On the way out of the airport the driver is talking on his phone to the hotel.  He tells them the police stopped him, and if they don't have a placard for the vehicle by tomorrow, they will be cited.  How professional....Last minute trip during a busy week in Houston meant I wound up at this property.  I'm an Elite member of the Choice Rewards program, but Choice isn't my first choice.  But it was available.  First sign of trouble was when I arrived in IAH. Got in about 9pm, needed to be up at 6 the next morning.  Chose to stay at an airport hotel for a reason.  Convenience.  Called the hotel for the shuttle, figuring that since it was an AIRPORT hotel, they'd have a shuttle running on a regular schedule.  Wrong.  I was told that it would be at least 30 minutes before they'd be able to send a shuttle.  Incredulously, I asked why.  I was told the driver was off on another run?  Where?  To Hobby Airport maybe?  After about 25 minutes, I noticed a black SUV pulling through the shuttle pickup area.  I wondered to myself why someone picking up friends or family would come into this area.  Then I saw the sign on paper in the window.  "COMFORT SUITES".  Groan.  Really?  I'm getting pickup up in an employees personal car?  Can you say "liability"?  Fine, I need sleep, I get in the car.  On the way out of the airport the driver is talking on his phone to the hotel.  He tells them the police stopped him, and if they don't have a placard for the vehicle by tomorrow, they will be cited.  How professional.  A minute later, the hotel calls back.  Apparently another guest has called for a pickup.  The hotel has already shown that they don't value MY time, so the driver turns around and goes back to the airport to pick up the other guest right away.  Thanks.  By the time I finally got to the hotel, it had taken over an hour to get from the airport to my airport hotel.  How professional. The lobby was busy, and the two young ladies working the front desk were easily distracted.  Every time someone walked in, or the phone rang, the customer they were working with got ignored, and the phone got answered.  Again, thanks for valuing my time.   I finally got to my suite.  As I opened the door, I was surprised how empty it seemed.  It was a good size suite, but when built, the managers chose small furniture.  They went cheap, and purchased furniture designed to make a small hotel room look bigger.  This furniture did the opposite.  when the door to the bedroom was open, it blocked the TV in the main room.  So if you take your family to this hotel, you can't have the kids in the main room while you read in bed unless you close the door.  Good thinking.  Cost cutting at it's finest.  I had a good time listening to my upstairs neighbor placed the floor because the sound carried well.  My room was on the front side of the hotel, so the cheap construction allowed copious highway noise in all night.  If you are crazy enough to stay here, get a room on top floor, on the back side to the property.So since there's nothing in walking distance, I ordered a quick bite to eat.  After all, I had a suite with a large kitchen area.  Microwave, and a cooktop stove.  The refrigerator was not a full size unit, instead it was a cheap large dorm style unit that needed defrosting.  But that's not the best part.  As I was waiting for dinner to be delivered, I thought I'd get out a plate and silverware.  Despite all the cabinets and cooktop, there were no cooking or eating utensils in the suite!  What the heck is the point of having a kitchen with a cooktop if you can't cook?  No plates, no glassware, no cutlery.  The plastic fork and knife, plus the plastic cup from the bathroom was my fine china for my late dinner.  Stay classy Comfort Suites!All I asked for the next morning was a shuttle to take me to the airport on time.  I'll give them credit, that actually happened.  Of course it was in the black SUV, still with no proper signage on the vehicle.  If you like everything about your stay being done halfway, this is the place for you.    Otherwise, do better than I did, stay elsewhere.  I need to plan better so I can use my guaranteed availability with the other hotel chains that I have elite status with as well.  I won't stay here again!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d674319-r124393538-Comfort_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -849,9 +1361,6 @@
   </si>
   <si>
     <t>Stayed here for the night before and after our vacation.  We were able to leave our car taking a cab in the morning and shuttle pick up on our return.  Shuttle available from 0600-midnight and will take you anywhere in 5 mile radius.  Staff were very helpful.  Rooms were quiet and very comfortable.  We will definitely return if we ever fly out of IAH again.  Only draw back, limited nearby restaurants.Great price by pre pay through Choice Hotels.com</t>
-  </si>
-  <si>
-    <t>January 2012</t>
   </si>
 </sst>
 </file>
@@ -1386,7 +1895,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1394,15 +1903,17 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>4</v>
-      </c>
-      <c r="R2" t="s"/>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1410,7 +1921,7 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -1426,7 +1937,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1435,39 +1946,45 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -1483,7 +2000,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1492,39 +2009,45 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -1540,7 +2063,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1549,39 +2072,43 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
         <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -1597,7 +2124,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1606,35 +2133,43 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -1650,7 +2185,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1659,45 +2194,39 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="O7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>1</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -1713,7 +2242,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1722,43 +2251,39 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O8" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>4</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>3</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
@@ -1795,13 +2320,13 @@
         <v>98</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1831,52 +2356,50 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
         <v>100</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>101</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>102</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>103</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
         <v>104</v>
       </c>
-      <c r="M10" t="n">
-        <v>2</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
         <v>105</v>
       </c>
-      <c r="O10" t="s">
+      <c r="X10" t="s">
         <v>106</v>
       </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>3</v>
-      </c>
-      <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>3</v>
-      </c>
-      <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>1</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
       <c r="Y10" t="s">
         <v>107</v>
       </c>
@@ -1915,13 +2438,13 @@
         <v>112</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
         <v>113</v>
       </c>
       <c r="O11" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1972,33 +2495,23 @@
         <v>118</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
-      </c>
-      <c r="N12" t="s">
-        <v>119</v>
-      </c>
-      <c r="O12" t="s">
-        <v>106</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>4</v>
-      </c>
+      <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>4</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13">
@@ -2014,50 +2527,46 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
         <v>121</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>122</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>123</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>124</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
         <v>125</v>
       </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>126</v>
-      </c>
       <c r="O13" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="P13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
       <c r="S13" t="n">
         <v>5</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2065,7 +2574,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -2081,62 +2590,48 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" t="s">
         <v>129</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>130</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>131</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
         <v>132</v>
       </c>
-      <c r="L14" t="s">
-        <v>133</v>
-      </c>
-      <c r="M14" t="n">
-        <v>4</v>
-      </c>
-      <c r="N14" t="s">
-        <v>126</v>
-      </c>
       <c r="O14" t="s">
-        <v>106</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>4</v>
-      </c>
-      <c r="R14" t="n">
-        <v>4</v>
-      </c>
-      <c r="S14" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>2</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>134</v>
-      </c>
-      <c r="X14" t="s">
-        <v>135</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15">
@@ -2152,62 +2647,52 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" t="s">
         <v>137</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
         <v>138</v>
       </c>
-      <c r="J15" t="s">
-        <v>139</v>
-      </c>
-      <c r="K15" t="s">
-        <v>140</v>
-      </c>
-      <c r="L15" t="s">
-        <v>141</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="s">
-        <v>142</v>
-      </c>
       <c r="O15" t="s">
-        <v>106</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
       <c r="R15" t="n">
-        <v>3</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>134</v>
-      </c>
-      <c r="X15" t="s">
-        <v>135</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16">
@@ -2223,50 +2708,44 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
         <v>144</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="O16" t="s">
         <v>145</v>
       </c>
-      <c r="J16" t="s">
-        <v>146</v>
-      </c>
-      <c r="K16" t="s">
-        <v>147</v>
-      </c>
-      <c r="L16" t="s">
-        <v>148</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="s">
-        <v>149</v>
-      </c>
-      <c r="O16" t="s">
-        <v>106</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3</v>
-      </c>
-      <c r="R16" t="n">
-        <v>4</v>
-      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2274,7 +2753,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17">
@@ -2290,34 +2769,34 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" t="s">
+        <v>150</v>
+      </c>
+      <c r="L17" t="s">
         <v>151</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
         <v>152</v>
       </c>
-      <c r="J17" t="s">
-        <v>153</v>
-      </c>
-      <c r="K17" t="s">
-        <v>154</v>
-      </c>
-      <c r="L17" t="s">
-        <v>155</v>
-      </c>
-      <c r="M17" t="n">
-        <v>2</v>
-      </c>
-      <c r="N17" t="s">
-        <v>149</v>
-      </c>
       <c r="O17" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2331,7 +2810,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18">
@@ -2347,50 +2826,46 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" t="s">
         <v>156</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="L18" t="s">
         <v>157</v>
       </c>
-      <c r="J18" t="s">
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
         <v>158</v>
       </c>
-      <c r="K18" t="s">
+      <c r="O18" t="s">
         <v>159</v>
       </c>
-      <c r="L18" t="s">
-        <v>160</v>
-      </c>
-      <c r="M18" t="n">
-        <v>4</v>
-      </c>
-      <c r="N18" t="s">
-        <v>161</v>
-      </c>
-      <c r="O18" t="s">
-        <v>106</v>
-      </c>
-      <c r="P18" t="n">
-        <v>4</v>
-      </c>
+      <c r="P18" t="s"/>
       <c r="Q18" t="n">
-        <v>5</v>
-      </c>
-      <c r="R18" t="n">
         <v>3</v>
       </c>
+      <c r="R18" t="s"/>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2398,7 +2873,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
@@ -2414,52 +2889,54 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>162</v>
+      </c>
+      <c r="J19" t="s">
         <v>163</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>164</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>165</v>
       </c>
-      <c r="K19" t="s">
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
         <v>166</v>
       </c>
-      <c r="L19" t="s">
-        <v>167</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>161</v>
-      </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>168</v>
-      </c>
-      <c r="X19" t="s">
-        <v>169</v>
-      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20">
@@ -2475,50 +2952,44 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>169</v>
+      </c>
+      <c r="J20" t="s">
+        <v>170</v>
+      </c>
+      <c r="K20" t="s">
         <v>171</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="L20" t="s">
         <v>172</v>
       </c>
-      <c r="J20" t="s">
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
         <v>173</v>
       </c>
-      <c r="K20" t="s">
-        <v>174</v>
-      </c>
-      <c r="L20" t="s">
-        <v>175</v>
-      </c>
-      <c r="M20" t="n">
-        <v>4</v>
-      </c>
-      <c r="N20" t="s">
-        <v>176</v>
-      </c>
       <c r="O20" t="s">
-        <v>106</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>4</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
       <c r="R20" t="n">
-        <v>4</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2526,7 +2997,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21">
@@ -2542,54 +3013,48 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>174</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>175</v>
+      </c>
+      <c r="J21" t="s">
+        <v>176</v>
+      </c>
+      <c r="K21" t="s">
         <v>177</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="L21" t="s">
         <v>178</v>
       </c>
-      <c r="J21" t="s">
-        <v>179</v>
-      </c>
-      <c r="K21" t="s">
-        <v>180</v>
-      </c>
-      <c r="L21" t="s">
-        <v>181</v>
-      </c>
       <c r="M21" t="n">
-        <v>4</v>
-      </c>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
-      <c r="P21" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
-      <c r="R21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>173</v>
+      </c>
+      <c r="O21" t="s">
+        <v>159</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>4</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22">
@@ -2605,50 +3070,46 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>180</v>
+      </c>
+      <c r="J22" t="s">
+        <v>181</v>
+      </c>
+      <c r="K22" t="s">
         <v>182</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="L22" t="s">
         <v>183</v>
       </c>
-      <c r="J22" t="s">
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
         <v>184</v>
       </c>
-      <c r="K22" t="s">
-        <v>185</v>
-      </c>
-      <c r="L22" t="s">
-        <v>186</v>
-      </c>
-      <c r="M22" t="n">
-        <v>2</v>
-      </c>
-      <c r="N22" t="s">
-        <v>176</v>
-      </c>
       <c r="O22" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q22" t="s"/>
       <c r="R22" t="n">
-        <v>3</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2656,7 +3117,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23">
@@ -2672,31 +3133,35 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>186</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
         <v>187</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>188</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>189</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>190</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
         <v>191</v>
       </c>
-      <c r="M23" t="n">
-        <v>4</v>
-      </c>
-      <c r="N23" t="s"/>
-      <c r="O23" t="s"/>
+      <c r="O23" t="s">
+        <v>69</v>
+      </c>
       <c r="P23" t="n">
         <v>5</v>
       </c>
@@ -2704,14 +3169,14 @@
         <v>5</v>
       </c>
       <c r="R23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2719,7 +3184,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24">
@@ -2735,7 +3200,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2744,38 +3209,34 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K24" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L24" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O24" t="s">
-        <v>127</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="P24" t="s"/>
       <c r="Q24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R24" t="n">
-        <v>3</v>
-      </c>
-      <c r="S24" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
         <v>1</v>
@@ -2783,10 +3244,14 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>199</v>
+      </c>
+      <c r="X24" t="s">
+        <v>200</v>
+      </c>
       <c r="Y24" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25">
@@ -2802,7 +3267,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2811,37 +3276,37 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="J25" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K25" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L25" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="O25" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
@@ -2851,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="X25" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Y25" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26">
@@ -2873,7 +3338,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -2882,49 +3347,53 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J26" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K26" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L26" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="O26" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="P26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>207</v>
+      </c>
+      <c r="X26" t="s">
+        <v>208</v>
+      </c>
       <c r="Y26" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27">
@@ -2940,7 +3409,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -2949,47 +3418,53 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J27" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K27" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L27" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="O27" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="P27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q27" t="n">
-        <v>4</v>
-      </c>
-      <c r="R27" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>207</v>
+      </c>
+      <c r="X27" t="s">
+        <v>208</v>
+      </c>
       <c r="Y27" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28">
@@ -3005,7 +3480,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3014,41 +3489,41 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J28" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L28" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O28" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="P28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -3056,7 +3531,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29">
@@ -3072,7 +3547,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3081,41 +3556,37 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J29" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K29" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L29" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
-      </c>
-      <c r="N29" t="s">
-        <v>232</v>
-      </c>
-      <c r="O29" t="s">
-        <v>106</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
       <c r="P29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -3160,25 +3631,25 @@
         <v>238</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N30" t="s">
         <v>239</v>
       </c>
       <c r="O30" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="P30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
@@ -3227,30 +3698,20 @@
         <v>244</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="O31" t="s">
-        <v>106</v>
-      </c>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
-      <c r="R31" t="n">
-        <v>4</v>
-      </c>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
@@ -3273,46 +3734,46 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
+        <v>245</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
         <v>246</v>
       </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>247</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>248</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>249</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
         <v>250</v>
       </c>
-      <c r="M32" t="n">
-        <v>5</v>
-      </c>
-      <c r="N32" t="s">
-        <v>251</v>
-      </c>
       <c r="O32" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="P32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q32" t="n">
         <v>5</v>
       </c>
       <c r="R32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
@@ -3324,7 +3785,7 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33">
@@ -3364,34 +3825,28 @@
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O33" t="s">
-        <v>106</v>
-      </c>
-      <c r="P33" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>4</v>
-      </c>
-      <c r="R33" t="n">
-        <v>3</v>
-      </c>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>257</v>
+      </c>
+      <c r="X33" t="s">
+        <v>258</v>
+      </c>
       <c r="Y33" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34">
@@ -3407,7 +3862,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3416,49 +3871,53 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="J34" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K34" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L34" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="O34" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
       </c>
       <c r="Q34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>257</v>
+      </c>
+      <c r="X34" t="s">
+        <v>258</v>
+      </c>
       <c r="Y34" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35">
@@ -3474,7 +3933,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3483,49 +3942,39 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="J35" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K35" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L35" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="O35" t="s">
-        <v>106</v>
-      </c>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>5</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36">
@@ -3541,7 +3990,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3550,41 +3999,41 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="J36" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="K36" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="L36" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="P36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3592,7 +4041,1743 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>272</v>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>279</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>280</v>
+      </c>
+      <c r="J37" t="s">
+        <v>281</v>
+      </c>
+      <c r="K37" t="s">
+        <v>282</v>
+      </c>
+      <c r="L37" t="s">
+        <v>283</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>285</v>
+      </c>
+      <c r="J38" t="s">
+        <v>286</v>
+      </c>
+      <c r="K38" t="s">
+        <v>287</v>
+      </c>
+      <c r="L38" t="s">
+        <v>288</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>278</v>
+      </c>
+      <c r="O38" t="s">
+        <v>159</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>289</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>290</v>
+      </c>
+      <c r="J39" t="s">
+        <v>291</v>
+      </c>
+      <c r="K39" t="s">
+        <v>292</v>
+      </c>
+      <c r="L39" t="s">
+        <v>293</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>294</v>
+      </c>
+      <c r="O39" t="s">
+        <v>69</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>296</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>297</v>
+      </c>
+      <c r="J40" t="s">
+        <v>298</v>
+      </c>
+      <c r="K40" t="s">
+        <v>299</v>
+      </c>
+      <c r="L40" t="s">
+        <v>300</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>301</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>303</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>304</v>
+      </c>
+      <c r="J41" t="s">
+        <v>305</v>
+      </c>
+      <c r="K41" t="s">
+        <v>306</v>
+      </c>
+      <c r="L41" t="s">
+        <v>307</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>308</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>309</v>
+      </c>
+      <c r="J42" t="s">
+        <v>310</v>
+      </c>
+      <c r="K42" t="s">
+        <v>311</v>
+      </c>
+      <c r="L42" t="s">
+        <v>312</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>301</v>
+      </c>
+      <c r="O42" t="s">
+        <v>69</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>314</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>315</v>
+      </c>
+      <c r="J43" t="s">
+        <v>316</v>
+      </c>
+      <c r="K43" t="s">
+        <v>317</v>
+      </c>
+      <c r="L43" t="s">
+        <v>318</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>319</v>
+      </c>
+      <c r="O43" t="s">
+        <v>69</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>320</v>
+      </c>
+      <c r="X43" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>323</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>324</v>
+      </c>
+      <c r="J44" t="s">
+        <v>316</v>
+      </c>
+      <c r="K44" t="s">
+        <v>325</v>
+      </c>
+      <c r="L44" t="s">
+        <v>326</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>319</v>
+      </c>
+      <c r="O44" t="s">
+        <v>145</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>327</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>328</v>
+      </c>
+      <c r="J45" t="s">
+        <v>329</v>
+      </c>
+      <c r="K45" t="s">
+        <v>330</v>
+      </c>
+      <c r="L45" t="s">
+        <v>331</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>319</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>332</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>333</v>
+      </c>
+      <c r="J46" t="s">
+        <v>334</v>
+      </c>
+      <c r="K46" t="s">
+        <v>335</v>
+      </c>
+      <c r="L46" t="s">
+        <v>336</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>337</v>
+      </c>
+      <c r="O46" t="s">
+        <v>159</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>339</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>340</v>
+      </c>
+      <c r="J47" t="s">
+        <v>341</v>
+      </c>
+      <c r="K47" t="s">
+        <v>342</v>
+      </c>
+      <c r="L47" t="s">
+        <v>343</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>344</v>
+      </c>
+      <c r="O47" t="s">
+        <v>159</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>345</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>346</v>
+      </c>
+      <c r="J48" t="s">
+        <v>347</v>
+      </c>
+      <c r="K48" t="s">
+        <v>348</v>
+      </c>
+      <c r="L48" t="s">
+        <v>349</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>350</v>
+      </c>
+      <c r="O48" t="s">
+        <v>159</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>351</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>352</v>
+      </c>
+      <c r="J49" t="s">
+        <v>353</v>
+      </c>
+      <c r="K49" t="s">
+        <v>354</v>
+      </c>
+      <c r="L49" t="s">
+        <v>355</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>356</v>
+      </c>
+      <c r="O49" t="s">
+        <v>69</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>357</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>358</v>
+      </c>
+      <c r="J50" t="s">
+        <v>359</v>
+      </c>
+      <c r="K50" t="s">
+        <v>360</v>
+      </c>
+      <c r="L50" t="s">
+        <v>361</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>362</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>363</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>364</v>
+      </c>
+      <c r="J51" t="s">
+        <v>365</v>
+      </c>
+      <c r="K51" t="s">
+        <v>366</v>
+      </c>
+      <c r="L51" t="s">
+        <v>367</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>368</v>
+      </c>
+      <c r="O51" t="s">
+        <v>159</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>370</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>371</v>
+      </c>
+      <c r="J52" t="s">
+        <v>372</v>
+      </c>
+      <c r="K52" t="s">
+        <v>66</v>
+      </c>
+      <c r="L52" t="s">
+        <v>373</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>374</v>
+      </c>
+      <c r="O52" t="s">
+        <v>69</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>375</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>376</v>
+      </c>
+      <c r="J53" t="s">
+        <v>377</v>
+      </c>
+      <c r="K53" t="s">
+        <v>378</v>
+      </c>
+      <c r="L53" t="s">
+        <v>379</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>380</v>
+      </c>
+      <c r="O53" t="s">
+        <v>159</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>381</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>382</v>
+      </c>
+      <c r="J54" t="s">
+        <v>383</v>
+      </c>
+      <c r="K54" t="s">
+        <v>384</v>
+      </c>
+      <c r="L54" t="s">
+        <v>385</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>380</v>
+      </c>
+      <c r="O54" t="s">
+        <v>69</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>387</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>388</v>
+      </c>
+      <c r="J55" t="s">
+        <v>389</v>
+      </c>
+      <c r="K55" t="s">
+        <v>390</v>
+      </c>
+      <c r="L55" t="s">
+        <v>391</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>392</v>
+      </c>
+      <c r="O55" t="s">
+        <v>159</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>394</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>395</v>
+      </c>
+      <c r="J56" t="s">
+        <v>389</v>
+      </c>
+      <c r="K56" t="s">
+        <v>396</v>
+      </c>
+      <c r="L56" t="s">
+        <v>397</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>398</v>
+      </c>
+      <c r="O56" t="s">
+        <v>69</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>399</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>400</v>
+      </c>
+      <c r="J57" t="s">
+        <v>401</v>
+      </c>
+      <c r="K57" t="s">
+        <v>402</v>
+      </c>
+      <c r="L57" t="s">
+        <v>403</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>398</v>
+      </c>
+      <c r="O57" t="s">
+        <v>159</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>404</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>405</v>
+      </c>
+      <c r="J58" t="s">
+        <v>406</v>
+      </c>
+      <c r="K58" t="s">
+        <v>407</v>
+      </c>
+      <c r="L58" t="s">
+        <v>408</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>398</v>
+      </c>
+      <c r="O58" t="s">
+        <v>159</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>410</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>411</v>
+      </c>
+      <c r="J59" t="s">
+        <v>412</v>
+      </c>
+      <c r="K59" t="s">
+        <v>413</v>
+      </c>
+      <c r="L59" t="s">
+        <v>414</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>392</v>
+      </c>
+      <c r="O59" t="s">
+        <v>159</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>415</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>416</v>
+      </c>
+      <c r="J60" t="s">
+        <v>417</v>
+      </c>
+      <c r="K60" t="s">
+        <v>418</v>
+      </c>
+      <c r="L60" t="s">
+        <v>419</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>398</v>
+      </c>
+      <c r="O60" t="s">
+        <v>159</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>2</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>421</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>422</v>
+      </c>
+      <c r="J61" t="s">
+        <v>423</v>
+      </c>
+      <c r="K61" t="s">
+        <v>424</v>
+      </c>
+      <c r="L61" t="s">
+        <v>425</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>398</v>
+      </c>
+      <c r="O61" t="s">
+        <v>159</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>56983</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>426</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>427</v>
+      </c>
+      <c r="J62" t="s">
+        <v>428</v>
+      </c>
+      <c r="K62" t="s">
+        <v>429</v>
+      </c>
+      <c r="L62" t="s">
+        <v>430</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>392</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>430</v>
       </c>
     </row>
   </sheetData>
